--- a/Code/Results/Cases/Case_3_20/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_20/res_line/pl_mw.xlsx
@@ -412,13 +412,13 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.931140380046941</v>
+        <v>1.931140380046912</v>
       </c>
       <c r="C2">
-        <v>0.6727655073906362</v>
+        <v>0.6727655073905225</v>
       </c>
       <c r="D2">
-        <v>0.007932946260333473</v>
+        <v>0.007932946260104323</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -442,7 +442,7 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>2.803327587337392</v>
+        <v>2.803327587337378</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -450,13 +450,13 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.679187203219499</v>
+        <v>1.679187203219527</v>
       </c>
       <c r="C3">
-        <v>0.5859318742790265</v>
+        <v>0.5859318742789981</v>
       </c>
       <c r="D3">
-        <v>0.008806539180119977</v>
+        <v>0.008806539180116424</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -465,10 +465,10 @@
         <v>1.093427801282076</v>
       </c>
       <c r="G3">
-        <v>0.8179580168845249</v>
+        <v>0.817958016884532</v>
       </c>
       <c r="H3">
-        <v>0.53247185870773</v>
+        <v>0.5324718587077086</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -488,22 +488,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.525039184283713</v>
+        <v>1.525039184283628</v>
       </c>
       <c r="C4">
         <v>0.5329157348292313</v>
       </c>
       <c r="D4">
-        <v>0.009360104655165458</v>
+        <v>0.009360104655134371</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.011624926664922</v>
+        <v>1.01162492666495</v>
       </c>
       <c r="G4">
-        <v>0.7599753216452498</v>
+        <v>0.7599753216452569</v>
       </c>
       <c r="H4">
         <v>0.5059919257768684</v>
@@ -518,7 +518,7 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>2.132042220598464</v>
+        <v>2.13204222059845</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -526,19 +526,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.462325265857856</v>
+        <v>1.462325265857686</v>
       </c>
       <c r="C5">
-        <v>0.51136916592327</v>
+        <v>0.5113691659231279</v>
       </c>
       <c r="D5">
-        <v>0.009589629751518558</v>
+        <v>0.009589629751625139</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.9789833514932553</v>
+        <v>0.9789833514932695</v>
       </c>
       <c r="G5">
         <v>0.736904338741212</v>
@@ -556,7 +556,7 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>2.032537868354353</v>
+        <v>2.032537868354396</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -564,13 +564,13 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.45191684887385</v>
+        <v>1.451916848874134</v>
       </c>
       <c r="C6">
         <v>0.5077943846040398</v>
       </c>
       <c r="D6">
-        <v>0.009627970468974567</v>
+        <v>0.009627970469042957</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -582,7 +582,7 @@
         <v>0.7331052344917666</v>
       </c>
       <c r="H6">
-        <v>0.4939122166370638</v>
+        <v>0.493912216637078</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -605,19 +605,19 @@
         <v>1.524193033164948</v>
       </c>
       <c r="C7">
-        <v>0.5326249379592696</v>
+        <v>0.5326249379590138</v>
       </c>
       <c r="D7">
-        <v>0.009363184601125951</v>
+        <v>0.009363184601059338</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.01118200876472</v>
+        <v>1.011182008764735</v>
       </c>
       <c r="G7">
-        <v>0.7596620058334409</v>
+        <v>0.759662005833448</v>
       </c>
       <c r="H7">
         <v>0.5058503329320061</v>
@@ -632,7 +632,7 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>2.130692479588788</v>
+        <v>2.13069247958876</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -640,13 +640,13 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.844129796579608</v>
+        <v>1.84412979657958</v>
       </c>
       <c r="C8">
-        <v>0.6427520521774852</v>
+        <v>0.6427520521772294</v>
       </c>
       <c r="D8">
-        <v>0.008230350144461163</v>
+        <v>0.008230350144498466</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -655,10 +655,10 @@
         <v>1.183327953043786</v>
       </c>
       <c r="G8">
-        <v>0.8819245121025006</v>
+        <v>0.8819245121024863</v>
       </c>
       <c r="H8">
-        <v>0.5622589444284145</v>
+        <v>0.5622589444284003</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -670,7 +670,7 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>2.655451731425472</v>
+        <v>2.655451731425487</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -678,13 +678,13 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.477665001622199</v>
+        <v>2.477665001622142</v>
       </c>
       <c r="C9">
-        <v>0.8619532604814992</v>
+        <v>0.8619532604815561</v>
       </c>
       <c r="D9">
-        <v>0.00616582134125121</v>
+        <v>0.006165821341276967</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -696,7 +696,7 @@
         <v>1.144854374557298</v>
       </c>
       <c r="H9">
-        <v>0.6895789475210279</v>
+        <v>0.6895789475210208</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -708,7 +708,7 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>3.787786252521855</v>
+        <v>3.78778625252184</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -719,16 +719,16 @@
         <v>2.949458387785398</v>
       </c>
       <c r="C10">
-        <v>1.026280837113859</v>
+        <v>1.026280837114001</v>
       </c>
       <c r="D10">
-        <v>0.004780835388177529</v>
+        <v>0.0047808353880745</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1.843780128896753</v>
+        <v>1.843780128896739</v>
       </c>
       <c r="G10">
         <v>1.357752964846824</v>
@@ -754,25 +754,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.16604866104359</v>
+        <v>3.166048661043362</v>
       </c>
       <c r="C11">
-        <v>1.102063139972728</v>
+        <v>1.102063139972586</v>
       </c>
       <c r="D11">
-        <v>0.004190295268781341</v>
+        <v>0.004190295268672983</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1.98478811678207</v>
+        <v>1.984788116782056</v>
       </c>
       <c r="G11">
-        <v>1.460429633360974</v>
+        <v>1.46042963336096</v>
       </c>
       <c r="H11">
-        <v>0.8500379656206221</v>
+        <v>0.8500379656206078</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -784,7 +784,7 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>5.192018386732357</v>
+        <v>5.192018386732329</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -798,16 +798,16 @@
         <v>1.130935175103673</v>
       </c>
       <c r="D12">
-        <v>0.003973564759251147</v>
+        <v>0.003973564759134796</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>2.039432207429556</v>
+        <v>2.039432207429599</v>
       </c>
       <c r="G12">
-        <v>1.500308796856856</v>
+        <v>1.500308796856842</v>
       </c>
       <c r="H12">
         <v>0.8707926432699935</v>
@@ -822,7 +822,7 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>5.375192727515909</v>
+        <v>5.375192727515937</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -830,25 +830,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.23064473832352</v>
+        <v>3.230644738323576</v>
       </c>
       <c r="C13">
-        <v>1.124708848569043</v>
+        <v>1.124708848568901</v>
       </c>
       <c r="D13">
-        <v>0.004019912205750487</v>
+        <v>0.004019912205760257</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>2.027604522768925</v>
+        <v>2.027604522768939</v>
       </c>
       <c r="G13">
-        <v>1.491672816965689</v>
+        <v>1.491672816965661</v>
       </c>
       <c r="H13">
-        <v>0.8662898152350209</v>
+        <v>0.8662898152350067</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -860,7 +860,7 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>5.335392674335935</v>
+        <v>5.335392674335893</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -868,25 +868,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.172816502809155</v>
+        <v>3.172816502809269</v>
       </c>
       <c r="C14">
-        <v>1.104434796658438</v>
+        <v>1.104434796658296</v>
       </c>
       <c r="D14">
-        <v>0.004172318477648318</v>
+        <v>0.004172318477868586</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1.98925742969368</v>
+        <v>1.989257429693694</v>
       </c>
       <c r="G14">
-        <v>1.463689483289585</v>
+        <v>1.463689483289542</v>
       </c>
       <c r="H14">
-        <v>0.851730814086892</v>
+        <v>0.8517308140868991</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -909,10 +909,10 @@
         <v>3.137439012643824</v>
       </c>
       <c r="C15">
-        <v>1.092039949309822</v>
+        <v>1.092039949309992</v>
       </c>
       <c r="D15">
-        <v>0.004266610866165976</v>
+        <v>0.004266610866269893</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -921,10 +921,10 @@
         <v>1.965937790365743</v>
       </c>
       <c r="G15">
-        <v>1.446684134050614</v>
+        <v>1.446684134050599</v>
       </c>
       <c r="H15">
-        <v>0.8429072300939211</v>
+        <v>0.842907230093914</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -936,7 +936,7 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>5.129236386184928</v>
+        <v>5.129236386184971</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -944,13 +944,13 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.935347238643431</v>
+        <v>2.935347238643317</v>
       </c>
       <c r="C16">
-        <v>1.021351272555535</v>
+        <v>1.021351272555705</v>
       </c>
       <c r="D16">
-        <v>0.004820320444926196</v>
+        <v>0.004820320445161563</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -959,7 +959,7 @@
         <v>1.834727749877061</v>
       </c>
       <c r="G16">
-        <v>1.351172991272435</v>
+        <v>1.351172991272421</v>
       </c>
       <c r="H16">
         <v>0.7936952404131645</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>4.697600410208992</v>
+        <v>4.697600410208977</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -985,10 +985,10 @@
         <v>2.811907663773695</v>
       </c>
       <c r="C17">
-        <v>0.9782684353348827</v>
+        <v>0.978268435334968</v>
       </c>
       <c r="D17">
-        <v>0.005170893451306391</v>
+        <v>0.005170893451304615</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -997,10 +997,10 @@
         <v>1.756231617362076</v>
       </c>
       <c r="G17">
-        <v>1.294176467062371</v>
+        <v>1.294176467062357</v>
       </c>
       <c r="H17">
-        <v>0.7646198955784769</v>
+        <v>0.7646198955784698</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1020,22 +1020,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.741091217503026</v>
+        <v>2.741091217502856</v>
       </c>
       <c r="C18">
-        <v>0.9535834682211259</v>
+        <v>0.9535834682212965</v>
       </c>
       <c r="D18">
-        <v>0.005376163600039341</v>
+        <v>0.005376163600053552</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1.71175510297671</v>
+        <v>1.711755102976696</v>
       </c>
       <c r="G18">
-        <v>1.261930944785149</v>
+        <v>1.261930944785121</v>
       </c>
       <c r="H18">
         <v>0.7482723999070586</v>
@@ -1050,7 +1050,7 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>4.300749374211534</v>
+        <v>4.300749374211549</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1058,25 +1058,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.717143953585605</v>
+        <v>2.717143953585662</v>
       </c>
       <c r="C19">
-        <v>0.9452410982583501</v>
+        <v>0.9452410982585207</v>
       </c>
       <c r="D19">
-        <v>0.005446255663859034</v>
+        <v>0.005446255663745347</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1.696806169163906</v>
+        <v>1.696806169163935</v>
       </c>
       <c r="G19">
         <v>1.251101106531422</v>
       </c>
       <c r="H19">
-        <v>0.742799006241782</v>
+        <v>0.7427990062417891</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1096,13 +1096,13 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.825028769371954</v>
+        <v>2.825028769371897</v>
       </c>
       <c r="C20">
-        <v>0.9828446378335514</v>
+        <v>0.982844637833324</v>
       </c>
       <c r="D20">
-        <v>0.005133190827214307</v>
+        <v>0.005133190827331546</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1111,10 +1111,10 @@
         <v>1.76451676049976</v>
       </c>
       <c r="G20">
-        <v>1.30018717482649</v>
+        <v>1.300187174826476</v>
       </c>
       <c r="H20">
-        <v>0.7676753948692863</v>
+        <v>0.7676753948692792</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1126,7 +1126,7 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>4.470178467468671</v>
+        <v>4.470178467468642</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1134,25 +1134,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.189792820064781</v>
+        <v>3.189792820064838</v>
       </c>
       <c r="C21">
-        <v>1.110384810916059</v>
+        <v>1.11038481091586</v>
       </c>
       <c r="D21">
-        <v>0.004127354720516507</v>
+        <v>0.004127354720734111</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>2.00048525173591</v>
+        <v>2.000485251735867</v>
       </c>
       <c r="G21">
         <v>1.471880345612846</v>
       </c>
       <c r="H21">
-        <v>0.8559872783187785</v>
+        <v>0.8559872783187856</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1172,25 +1172,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.430115490943933</v>
+        <v>3.43011549094382</v>
       </c>
       <c r="C22">
         <v>1.194772096554345</v>
       </c>
       <c r="D22">
-        <v>0.003510977506905988</v>
+        <v>0.003510977506809176</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>2.162100823126721</v>
+        <v>2.162100823126707</v>
       </c>
       <c r="G22">
-        <v>1.590008609668885</v>
+        <v>1.590008609668899</v>
       </c>
       <c r="H22">
-        <v>0.9178279320901623</v>
+        <v>0.9178279320901765</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1202,7 +1202,7 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>5.793253798234133</v>
+        <v>5.79325379823419</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1213,10 +1213,10 @@
         <v>3.301660916972196</v>
       </c>
       <c r="C23">
-        <v>1.149629491838311</v>
+        <v>1.149629491838283</v>
       </c>
       <c r="D23">
-        <v>0.003835710399109793</v>
+        <v>0.003835710399021863</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1225,7 +1225,7 @@
         <v>2.075089330600065</v>
       </c>
       <c r="G23">
-        <v>1.526357615874545</v>
+        <v>1.526357615874517</v>
       </c>
       <c r="H23">
         <v>0.8844020986169028</v>
@@ -1240,7 +1240,7 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>5.4957038407791</v>
+        <v>5.495703840779044</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1248,22 +1248,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.81909625189212</v>
+        <v>2.819096251892063</v>
       </c>
       <c r="C24">
-        <v>0.9807754772984367</v>
+        <v>0.9807754772985788</v>
       </c>
       <c r="D24">
-        <v>0.005150224680731341</v>
+        <v>0.005150224680640747</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1.760769031029682</v>
+        <v>1.760769031029696</v>
       </c>
       <c r="G24">
-        <v>1.297468117840268</v>
+        <v>1.297468117840253</v>
       </c>
       <c r="H24">
         <v>0.7662928643684168</v>
@@ -1278,7 +1278,7 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>4.458103261341549</v>
+        <v>4.458103261341535</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1286,13 +1286,13 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.3053589154581</v>
+        <v>2.305358915458044</v>
       </c>
       <c r="C25">
         <v>0.8021777826452023</v>
       </c>
       <c r="D25">
-        <v>0.006704265400083287</v>
+        <v>0.00670426540025737</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>3.466474260004901</v>
+        <v>3.466474260004915</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_20/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_20/res_line/pl_mw.xlsx
@@ -412,13 +412,13 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.931140380046912</v>
+        <v>1.931140380046941</v>
       </c>
       <c r="C2">
-        <v>0.6727655073905225</v>
+        <v>0.6727655073906362</v>
       </c>
       <c r="D2">
-        <v>0.007932946260104323</v>
+        <v>0.007932946260333473</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -442,7 +442,7 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>2.803327587337378</v>
+        <v>2.803327587337392</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -450,13 +450,13 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.679187203219527</v>
+        <v>1.679187203219499</v>
       </c>
       <c r="C3">
-        <v>0.5859318742789981</v>
+        <v>0.5859318742790265</v>
       </c>
       <c r="D3">
-        <v>0.008806539180116424</v>
+        <v>0.008806539180119977</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -465,10 +465,10 @@
         <v>1.093427801282076</v>
       </c>
       <c r="G3">
-        <v>0.817958016884532</v>
+        <v>0.8179580168845249</v>
       </c>
       <c r="H3">
-        <v>0.5324718587077086</v>
+        <v>0.53247185870773</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -488,22 +488,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.525039184283628</v>
+        <v>1.525039184283713</v>
       </c>
       <c r="C4">
         <v>0.5329157348292313</v>
       </c>
       <c r="D4">
-        <v>0.009360104655134371</v>
+        <v>0.009360104655165458</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.01162492666495</v>
+        <v>1.011624926664922</v>
       </c>
       <c r="G4">
-        <v>0.7599753216452569</v>
+        <v>0.7599753216452498</v>
       </c>
       <c r="H4">
         <v>0.5059919257768684</v>
@@ -518,7 +518,7 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>2.13204222059845</v>
+        <v>2.132042220598464</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -526,19 +526,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.462325265857686</v>
+        <v>1.462325265857856</v>
       </c>
       <c r="C5">
-        <v>0.5113691659231279</v>
+        <v>0.51136916592327</v>
       </c>
       <c r="D5">
-        <v>0.009589629751625139</v>
+        <v>0.009589629751518558</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.9789833514932695</v>
+        <v>0.9789833514932553</v>
       </c>
       <c r="G5">
         <v>0.736904338741212</v>
@@ -556,7 +556,7 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>2.032537868354396</v>
+        <v>2.032537868354353</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -564,13 +564,13 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.451916848874134</v>
+        <v>1.45191684887385</v>
       </c>
       <c r="C6">
         <v>0.5077943846040398</v>
       </c>
       <c r="D6">
-        <v>0.009627970469042957</v>
+        <v>0.009627970468974567</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -582,7 +582,7 @@
         <v>0.7331052344917666</v>
       </c>
       <c r="H6">
-        <v>0.493912216637078</v>
+        <v>0.4939122166370638</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -605,19 +605,19 @@
         <v>1.524193033164948</v>
       </c>
       <c r="C7">
-        <v>0.5326249379590138</v>
+        <v>0.5326249379592696</v>
       </c>
       <c r="D7">
-        <v>0.009363184601059338</v>
+        <v>0.009363184601125951</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.011182008764735</v>
+        <v>1.01118200876472</v>
       </c>
       <c r="G7">
-        <v>0.759662005833448</v>
+        <v>0.7596620058334409</v>
       </c>
       <c r="H7">
         <v>0.5058503329320061</v>
@@ -632,7 +632,7 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>2.13069247958876</v>
+        <v>2.130692479588788</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -640,13 +640,13 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.84412979657958</v>
+        <v>1.844129796579608</v>
       </c>
       <c r="C8">
-        <v>0.6427520521772294</v>
+        <v>0.6427520521774852</v>
       </c>
       <c r="D8">
-        <v>0.008230350144498466</v>
+        <v>0.008230350144461163</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -655,10 +655,10 @@
         <v>1.183327953043786</v>
       </c>
       <c r="G8">
-        <v>0.8819245121024863</v>
+        <v>0.8819245121025006</v>
       </c>
       <c r="H8">
-        <v>0.5622589444284003</v>
+        <v>0.5622589444284145</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -670,7 +670,7 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>2.655451731425487</v>
+        <v>2.655451731425472</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -678,13 +678,13 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.477665001622142</v>
+        <v>2.477665001622199</v>
       </c>
       <c r="C9">
-        <v>0.8619532604815561</v>
+        <v>0.8619532604814992</v>
       </c>
       <c r="D9">
-        <v>0.006165821341276967</v>
+        <v>0.00616582134125121</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -696,7 +696,7 @@
         <v>1.144854374557298</v>
       </c>
       <c r="H9">
-        <v>0.6895789475210208</v>
+        <v>0.6895789475210279</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -708,7 +708,7 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>3.78778625252184</v>
+        <v>3.787786252521855</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -719,16 +719,16 @@
         <v>2.949458387785398</v>
       </c>
       <c r="C10">
-        <v>1.026280837114001</v>
+        <v>1.026280837113859</v>
       </c>
       <c r="D10">
-        <v>0.0047808353880745</v>
+        <v>0.004780835388177529</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1.843780128896739</v>
+        <v>1.843780128896753</v>
       </c>
       <c r="G10">
         <v>1.357752964846824</v>
@@ -754,25 +754,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.166048661043362</v>
+        <v>3.16604866104359</v>
       </c>
       <c r="C11">
-        <v>1.102063139972586</v>
+        <v>1.102063139972728</v>
       </c>
       <c r="D11">
-        <v>0.004190295268672983</v>
+        <v>0.004190295268781341</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1.984788116782056</v>
+        <v>1.98478811678207</v>
       </c>
       <c r="G11">
-        <v>1.46042963336096</v>
+        <v>1.460429633360974</v>
       </c>
       <c r="H11">
-        <v>0.8500379656206078</v>
+        <v>0.8500379656206221</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -784,7 +784,7 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>5.192018386732329</v>
+        <v>5.192018386732357</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -798,16 +798,16 @@
         <v>1.130935175103673</v>
       </c>
       <c r="D12">
-        <v>0.003973564759134796</v>
+        <v>0.003973564759251147</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>2.039432207429599</v>
+        <v>2.039432207429556</v>
       </c>
       <c r="G12">
-        <v>1.500308796856842</v>
+        <v>1.500308796856856</v>
       </c>
       <c r="H12">
         <v>0.8707926432699935</v>
@@ -822,7 +822,7 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>5.375192727515937</v>
+        <v>5.375192727515909</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -830,25 +830,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.230644738323576</v>
+        <v>3.23064473832352</v>
       </c>
       <c r="C13">
-        <v>1.124708848568901</v>
+        <v>1.124708848569043</v>
       </c>
       <c r="D13">
-        <v>0.004019912205760257</v>
+        <v>0.004019912205750487</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>2.027604522768939</v>
+        <v>2.027604522768925</v>
       </c>
       <c r="G13">
-        <v>1.491672816965661</v>
+        <v>1.491672816965689</v>
       </c>
       <c r="H13">
-        <v>0.8662898152350067</v>
+        <v>0.8662898152350209</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -860,7 +860,7 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>5.335392674335893</v>
+        <v>5.335392674335935</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -868,25 +868,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.172816502809269</v>
+        <v>3.172816502809155</v>
       </c>
       <c r="C14">
-        <v>1.104434796658296</v>
+        <v>1.104434796658438</v>
       </c>
       <c r="D14">
-        <v>0.004172318477868586</v>
+        <v>0.004172318477648318</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1.989257429693694</v>
+        <v>1.98925742969368</v>
       </c>
       <c r="G14">
-        <v>1.463689483289542</v>
+        <v>1.463689483289585</v>
       </c>
       <c r="H14">
-        <v>0.8517308140868991</v>
+        <v>0.851730814086892</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -909,10 +909,10 @@
         <v>3.137439012643824</v>
       </c>
       <c r="C15">
-        <v>1.092039949309992</v>
+        <v>1.092039949309822</v>
       </c>
       <c r="D15">
-        <v>0.004266610866269893</v>
+        <v>0.004266610866165976</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -921,10 +921,10 @@
         <v>1.965937790365743</v>
       </c>
       <c r="G15">
-        <v>1.446684134050599</v>
+        <v>1.446684134050614</v>
       </c>
       <c r="H15">
-        <v>0.842907230093914</v>
+        <v>0.8429072300939211</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -936,7 +936,7 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>5.129236386184971</v>
+        <v>5.129236386184928</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -944,13 +944,13 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.935347238643317</v>
+        <v>2.935347238643431</v>
       </c>
       <c r="C16">
-        <v>1.021351272555705</v>
+        <v>1.021351272555535</v>
       </c>
       <c r="D16">
-        <v>0.004820320445161563</v>
+        <v>0.004820320444926196</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -959,7 +959,7 @@
         <v>1.834727749877061</v>
       </c>
       <c r="G16">
-        <v>1.351172991272421</v>
+        <v>1.351172991272435</v>
       </c>
       <c r="H16">
         <v>0.7936952404131645</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>4.697600410208977</v>
+        <v>4.697600410208992</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -985,10 +985,10 @@
         <v>2.811907663773695</v>
       </c>
       <c r="C17">
-        <v>0.978268435334968</v>
+        <v>0.9782684353348827</v>
       </c>
       <c r="D17">
-        <v>0.005170893451304615</v>
+        <v>0.005170893451306391</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -997,10 +997,10 @@
         <v>1.756231617362076</v>
       </c>
       <c r="G17">
-        <v>1.294176467062357</v>
+        <v>1.294176467062371</v>
       </c>
       <c r="H17">
-        <v>0.7646198955784698</v>
+        <v>0.7646198955784769</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1020,22 +1020,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.741091217502856</v>
+        <v>2.741091217503026</v>
       </c>
       <c r="C18">
-        <v>0.9535834682212965</v>
+        <v>0.9535834682211259</v>
       </c>
       <c r="D18">
-        <v>0.005376163600053552</v>
+        <v>0.005376163600039341</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1.711755102976696</v>
+        <v>1.71175510297671</v>
       </c>
       <c r="G18">
-        <v>1.261930944785121</v>
+        <v>1.261930944785149</v>
       </c>
       <c r="H18">
         <v>0.7482723999070586</v>
@@ -1050,7 +1050,7 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>4.300749374211549</v>
+        <v>4.300749374211534</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1058,25 +1058,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.717143953585662</v>
+        <v>2.717143953585605</v>
       </c>
       <c r="C19">
-        <v>0.9452410982585207</v>
+        <v>0.9452410982583501</v>
       </c>
       <c r="D19">
-        <v>0.005446255663745347</v>
+        <v>0.005446255663859034</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1.696806169163935</v>
+        <v>1.696806169163906</v>
       </c>
       <c r="G19">
         <v>1.251101106531422</v>
       </c>
       <c r="H19">
-        <v>0.7427990062417891</v>
+        <v>0.742799006241782</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1096,13 +1096,13 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.825028769371897</v>
+        <v>2.825028769371954</v>
       </c>
       <c r="C20">
-        <v>0.982844637833324</v>
+        <v>0.9828446378335514</v>
       </c>
       <c r="D20">
-        <v>0.005133190827331546</v>
+        <v>0.005133190827214307</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1111,10 +1111,10 @@
         <v>1.76451676049976</v>
       </c>
       <c r="G20">
-        <v>1.300187174826476</v>
+        <v>1.30018717482649</v>
       </c>
       <c r="H20">
-        <v>0.7676753948692792</v>
+        <v>0.7676753948692863</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1126,7 +1126,7 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>4.470178467468642</v>
+        <v>4.470178467468671</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1134,25 +1134,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.189792820064838</v>
+        <v>3.189792820064781</v>
       </c>
       <c r="C21">
-        <v>1.11038481091586</v>
+        <v>1.110384810916059</v>
       </c>
       <c r="D21">
-        <v>0.004127354720734111</v>
+        <v>0.004127354720516507</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>2.000485251735867</v>
+        <v>2.00048525173591</v>
       </c>
       <c r="G21">
         <v>1.471880345612846</v>
       </c>
       <c r="H21">
-        <v>0.8559872783187856</v>
+        <v>0.8559872783187785</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1172,25 +1172,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.43011549094382</v>
+        <v>3.430115490943933</v>
       </c>
       <c r="C22">
         <v>1.194772096554345</v>
       </c>
       <c r="D22">
-        <v>0.003510977506809176</v>
+        <v>0.003510977506905988</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>2.162100823126707</v>
+        <v>2.162100823126721</v>
       </c>
       <c r="G22">
-        <v>1.590008609668899</v>
+        <v>1.590008609668885</v>
       </c>
       <c r="H22">
-        <v>0.9178279320901765</v>
+        <v>0.9178279320901623</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1202,7 +1202,7 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>5.79325379823419</v>
+        <v>5.793253798234133</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1213,10 +1213,10 @@
         <v>3.301660916972196</v>
       </c>
       <c r="C23">
-        <v>1.149629491838283</v>
+        <v>1.149629491838311</v>
       </c>
       <c r="D23">
-        <v>0.003835710399021863</v>
+        <v>0.003835710399109793</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1225,7 +1225,7 @@
         <v>2.075089330600065</v>
       </c>
       <c r="G23">
-        <v>1.526357615874517</v>
+        <v>1.526357615874545</v>
       </c>
       <c r="H23">
         <v>0.8844020986169028</v>
@@ -1240,7 +1240,7 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>5.495703840779044</v>
+        <v>5.4957038407791</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1248,22 +1248,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.819096251892063</v>
+        <v>2.81909625189212</v>
       </c>
       <c r="C24">
-        <v>0.9807754772985788</v>
+        <v>0.9807754772984367</v>
       </c>
       <c r="D24">
-        <v>0.005150224680640747</v>
+        <v>0.005150224680731341</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1.760769031029696</v>
+        <v>1.760769031029682</v>
       </c>
       <c r="G24">
-        <v>1.297468117840253</v>
+        <v>1.297468117840268</v>
       </c>
       <c r="H24">
         <v>0.7662928643684168</v>
@@ -1278,7 +1278,7 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>4.458103261341535</v>
+        <v>4.458103261341549</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1286,13 +1286,13 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.305358915458044</v>
+        <v>2.3053589154581</v>
       </c>
       <c r="C25">
         <v>0.8021777826452023</v>
       </c>
       <c r="D25">
-        <v>0.00670426540025737</v>
+        <v>0.006704265400083287</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>3.466474260004915</v>
+        <v>3.466474260004901</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_20/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_20/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,34 +406,37 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.931140380046941</v>
+        <v>1.931036925196253</v>
       </c>
       <c r="C2">
-        <v>0.6727655073906362</v>
+        <v>0.6724237227965375</v>
       </c>
       <c r="D2">
-        <v>0.007932946260333473</v>
+        <v>0.007943505542635343</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.231701752716859</v>
+        <v>1.229979463237768</v>
       </c>
       <c r="G2">
-        <v>0.9164396106625787</v>
+        <v>0.2934173274935858</v>
       </c>
       <c r="H2">
-        <v>0.5785526747390577</v>
+        <v>0.625446749946633</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.5775329256715978</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -442,36 +445,39 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>2.803327587337392</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>2.803296769017663</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.679187203219499</v>
+        <v>1.679120880926291</v>
       </c>
       <c r="C3">
-        <v>0.5859318742790265</v>
+        <v>0.5856473374516327</v>
       </c>
       <c r="D3">
-        <v>0.008806539180119977</v>
+        <v>0.008813918371487262</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.093427801282076</v>
+        <v>1.091910908035132</v>
       </c>
       <c r="G3">
-        <v>0.8179580168845249</v>
+        <v>0.2581338329422351</v>
       </c>
       <c r="H3">
-        <v>0.53247185870773</v>
+        <v>0.5625320899060355</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.5315664607270421</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -480,36 +486,39 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>2.381264292748824</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>2.381246770239287</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.525039184283713</v>
+        <v>1.524993391306538</v>
       </c>
       <c r="C4">
-        <v>0.5329157348292313</v>
+        <v>0.5326652314064404</v>
       </c>
       <c r="D4">
-        <v>0.009360104655165458</v>
+        <v>0.009365394754052403</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.011624926664922</v>
+        <v>1.010230533630917</v>
       </c>
       <c r="G4">
-        <v>0.7599753216452498</v>
+        <v>0.2372692069987821</v>
       </c>
       <c r="H4">
-        <v>0.5059919257768684</v>
+        <v>0.525583436421492</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.5051548223395272</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -518,36 +527,39 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>2.132042220598464</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>2.132031042124424</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.462325265857856</v>
+        <v>1.462287343420968</v>
       </c>
       <c r="C5">
-        <v>0.51136916592327</v>
+        <v>0.5111322956977631</v>
       </c>
       <c r="D5">
-        <v>0.009589629751518558</v>
+        <v>0.009594037163917157</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.9789833514932553</v>
+        <v>0.9776381037425637</v>
       </c>
       <c r="G5">
-        <v>0.736904338741212</v>
+        <v>0.2289446178682795</v>
       </c>
       <c r="H5">
-        <v>0.4956121755102245</v>
+        <v>0.5109050946223874</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.4948024920683523</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -556,36 +568,39 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>2.032537868354353</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>2.03252891892032</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.45191684887385</v>
+        <v>1.451880205496195</v>
       </c>
       <c r="C6">
-        <v>0.5077943846040398</v>
+        <v>0.5075597651633075</v>
       </c>
       <c r="D6">
-        <v>0.009627970468974567</v>
+        <v>0.00963222949705056</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.9736028038318523</v>
+        <v>0.9722656734709574</v>
       </c>
       <c r="G6">
-        <v>0.7331052344917666</v>
+        <v>0.2275724369808074</v>
       </c>
       <c r="H6">
-        <v>0.4939122166370638</v>
+        <v>0.5084894164156921</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.493107063400835</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -594,36 +609,39 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>2.016127801172246</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>2.016119202878897</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.524193033164948</v>
+        <v>1.524147348243304</v>
       </c>
       <c r="C7">
-        <v>0.5326249379592696</v>
+        <v>0.5323746192962631</v>
       </c>
       <c r="D7">
-        <v>0.009363184601125951</v>
+        <v>0.009368462919048248</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.01118200876472</v>
+        <v>1.009788281491126</v>
       </c>
       <c r="G7">
-        <v>0.7596620058334409</v>
+        <v>0.2371562472836004</v>
       </c>
       <c r="H7">
-        <v>0.5058503329320061</v>
+        <v>0.5253840018741442</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.5050136008642596</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -632,36 +650,39 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>2.130692479588788</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>2.13068133250168</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.844129796579608</v>
+        <v>1.844039663942851</v>
       </c>
       <c r="C8">
-        <v>0.6427520521774852</v>
+        <v>0.6424302670799875</v>
       </c>
       <c r="D8">
-        <v>0.008230350144461163</v>
+        <v>0.008239843165751104</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.183327953043786</v>
+        <v>1.181677320174273</v>
       </c>
       <c r="G8">
-        <v>0.8819245121025006</v>
+        <v>0.2810709540639067</v>
       </c>
       <c r="H8">
-        <v>0.5622589444284145</v>
+        <v>0.6033768243436981</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>0.5612790674956543</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -670,36 +691,39 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>2.655451731425472</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>2.655425944389449</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.477665001622199</v>
+        <v>2.477465878612406</v>
       </c>
       <c r="C9">
-        <v>0.8619532604814992</v>
+        <v>0.8614801608529774</v>
       </c>
       <c r="D9">
-        <v>0.00616582134125121</v>
+        <v>0.006182339296949557</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.549836085047517</v>
+        <v>1.547645941234563</v>
       </c>
       <c r="G9">
-        <v>1.144854374557298</v>
+        <v>0.3747159799579123</v>
       </c>
       <c r="H9">
-        <v>0.6895789475210279</v>
+        <v>0.7719198272319261</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>0.6882993739163723</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -708,36 +732,39 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>3.787786252521855</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>3.787710975497035</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.949458387785398</v>
+        <v>2.949159840544098</v>
       </c>
       <c r="C10">
-        <v>1.026280837113859</v>
+        <v>1.025686048936109</v>
       </c>
       <c r="D10">
-        <v>0.004780835388177529</v>
+        <v>0.004801490196971514</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1.843780128896753</v>
+        <v>1.841160036543044</v>
       </c>
       <c r="G10">
-        <v>1.357752964846824</v>
+        <v>0.4500275302001597</v>
       </c>
       <c r="H10">
-        <v>0.7970662342783896</v>
+        <v>0.9089188947506983</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>0.795548532106146</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -746,36 +773,39 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>4.727093774522785</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>4.726956136698561</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.16604866104359</v>
+        <v>3.165699093706507</v>
       </c>
       <c r="C11">
-        <v>1.102063139972728</v>
+        <v>1.101409709292227</v>
       </c>
       <c r="D11">
-        <v>0.004190295268781341</v>
+        <v>0.004212529296800938</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1.98478811678207</v>
+        <v>1.981961748027274</v>
       </c>
       <c r="G11">
-        <v>1.460429633360974</v>
+        <v>0.4862319712826633</v>
       </c>
       <c r="H11">
-        <v>0.8500379656206221</v>
+        <v>0.9751100306250464</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.8484061861889387</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -784,36 +814,39 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>5.192018386732357</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>5.191841545758081</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.248394679483908</v>
+        <v>3.248024804236195</v>
       </c>
       <c r="C12">
-        <v>1.130935175103673</v>
+        <v>1.130258965017418</v>
       </c>
       <c r="D12">
-        <v>0.003973564759251147</v>
+        <v>0.003996344235303262</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>2.039432207429556</v>
+        <v>2.036525823533239</v>
       </c>
       <c r="G12">
-        <v>1.500308796856856</v>
+        <v>0.500276431347757</v>
       </c>
       <c r="H12">
-        <v>0.8707926432699935</v>
+        <v>1.000835875631537</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>0.8691166366412517</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -822,36 +855,39 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>5.375192727515909</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>5.374998756212946</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.23064473832352</v>
+        <v>3.230279283365462</v>
       </c>
       <c r="C13">
-        <v>1.124708848569043</v>
+        <v>1.124037571690451</v>
       </c>
       <c r="D13">
-        <v>0.004019912205750487</v>
+        <v>0.004042576719991864</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>2.027604522768925</v>
+        <v>2.024715462999666</v>
       </c>
       <c r="G13">
-        <v>1.491672816965689</v>
+        <v>0.4972358191776749</v>
       </c>
       <c r="H13">
-        <v>0.8662898152350209</v>
+        <v>0.9952640684013687</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>0.8646233832545391</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -860,36 +896,39 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>5.335392674335935</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>5.335202509613111</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.172816502809155</v>
+        <v>3.172465285484463</v>
       </c>
       <c r="C14">
-        <v>1.104434796658438</v>
+        <v>1.1037795040167</v>
       </c>
       <c r="D14">
-        <v>0.004172318477648318</v>
+        <v>0.004194598494566826</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1.98925742969368</v>
+        <v>1.986424518597531</v>
       </c>
       <c r="G14">
-        <v>1.463689483289585</v>
+        <v>0.4873803539550039</v>
       </c>
       <c r="H14">
-        <v>0.851730814086892</v>
+        <v>0.977212593444861</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>0.8500954180146181</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -898,36 +937,39 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>5.206933716955177</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>5.206755517936571</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.137439012643824</v>
+        <v>3.137096382700975</v>
       </c>
       <c r="C15">
-        <v>1.092039949309822</v>
+        <v>1.091394369617774</v>
       </c>
       <c r="D15">
-        <v>0.004266610866165976</v>
+        <v>0.004288648209894497</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>1.965937790365743</v>
+        <v>1.963139011778281</v>
       </c>
       <c r="G15">
-        <v>1.446684134050614</v>
+        <v>0.4813890059906356</v>
       </c>
       <c r="H15">
-        <v>0.8429072300939211</v>
+        <v>0.9662450554625082</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>0.8412907035868926</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -936,36 +978,39 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>5.129236386184928</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>5.129065191193263</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.935347238643431</v>
+        <v>2.935051896370112</v>
       </c>
       <c r="C16">
-        <v>1.021351272555535</v>
+        <v>1.020760242489814</v>
       </c>
       <c r="D16">
-        <v>0.004820320444926196</v>
+        <v>0.004840865239552627</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>1.834727749877061</v>
+        <v>1.832120893761328</v>
       </c>
       <c r="G16">
-        <v>1.351172991272435</v>
+        <v>0.4477050627915702</v>
       </c>
       <c r="H16">
-        <v>0.7936952404131645</v>
+        <v>0.9046794478374522</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>0.792184861619468</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -974,36 +1019,39 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>4.697600410208992</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>4.697465061880592</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.811907663773695</v>
+        <v>2.811639743782166</v>
       </c>
       <c r="C17">
-        <v>0.9782684353348827</v>
+        <v>0.9777099618760019</v>
       </c>
       <c r="D17">
-        <v>0.005170893451306391</v>
+        <v>0.005190439389964219</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>1.756231617362076</v>
+        <v>1.753739527346113</v>
       </c>
       <c r="G17">
-        <v>1.294176467062371</v>
+        <v>0.4275748676238322</v>
       </c>
       <c r="H17">
-        <v>0.7646198955784769</v>
+        <v>0.8679698151714632</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>0.7631730334561979</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1012,36 +1060,39 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>4.443492115879238</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>4.443375565716636</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.741091217503026</v>
+        <v>2.740838535409182</v>
       </c>
       <c r="C18">
-        <v>0.9535834682211259</v>
+        <v>0.9530434180827854</v>
       </c>
       <c r="D18">
-        <v>0.005376163600039341</v>
+        <v>0.005395107195043991</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1.71175510297671</v>
+        <v>1.709328043271555</v>
       </c>
       <c r="G18">
-        <v>1.261930944785149</v>
+        <v>0.416175714079202</v>
       </c>
       <c r="H18">
-        <v>0.7482723999070586</v>
+        <v>0.8472123245786349</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>0.7468615440502759</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1050,36 +1101,39 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>4.300749374211534</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>4.30064267455306</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.717143953585605</v>
+        <v>2.716896343339499</v>
       </c>
       <c r="C19">
-        <v>0.9452410982583501</v>
+        <v>0.9447072367964893</v>
       </c>
       <c r="D19">
-        <v>0.005446255663859034</v>
+        <v>0.005464990773747402</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1.696806169163906</v>
+        <v>1.694400969047138</v>
       </c>
       <c r="G19">
-        <v>1.251101106531422</v>
+        <v>0.4123454378809868</v>
       </c>
       <c r="H19">
-        <v>0.742799006241782</v>
+        <v>0.8402426528093088</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.741400256362958</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1088,36 +1142,39 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>4.252962067006408</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>4.252858554329222</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.825028769371954</v>
+        <v>2.824757986624832</v>
       </c>
       <c r="C20">
-        <v>0.9828446378335514</v>
+        <v>0.9822827306369959</v>
       </c>
       <c r="D20">
-        <v>0.005133190827214307</v>
+        <v>0.005152846033826819</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1.76451676049976</v>
+        <v>1.762012557248823</v>
       </c>
       <c r="G20">
-        <v>1.30018717482649</v>
+        <v>0.4296988520920166</v>
       </c>
       <c r="H20">
-        <v>0.7676753948692863</v>
+        <v>0.8718399901640481</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>0.766221827118116</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1126,36 +1183,39 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>4.470178467468671</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>4.470060019942196</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.189792820064781</v>
+        <v>3.189437448945796</v>
       </c>
       <c r="C21">
-        <v>1.110384810916059</v>
+        <v>1.109724839745525</v>
       </c>
       <c r="D21">
-        <v>0.004127354720516507</v>
+        <v>0.004149749185366147</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>2.00048525173591</v>
+        <v>1.99763590341945</v>
       </c>
       <c r="G21">
-        <v>1.471880345612846</v>
+        <v>0.4902655643478369</v>
       </c>
       <c r="H21">
-        <v>0.8559872783187785</v>
+        <v>0.9824958764869507</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>0.8543427960327463</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1164,36 +1224,39 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>5.244455513552097</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>5.244273869563131</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.430115490943933</v>
+        <v>3.429698992280748</v>
       </c>
       <c r="C22">
-        <v>1.194772096554345</v>
+        <v>1.194044636785833</v>
       </c>
       <c r="D22">
-        <v>0.003510977506905988</v>
+        <v>0.003534849554396757</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>2.162100823126721</v>
+        <v>2.159014569288431</v>
       </c>
       <c r="G22">
-        <v>1.590008609668885</v>
+        <v>0.5318347921624991</v>
       </c>
       <c r="H22">
-        <v>0.9178279320901623</v>
+        <v>1.058732989252746</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>0.9160525446662717</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1202,36 +1265,39 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>5.793253798234133</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>5.793016879896385</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.301660916972196</v>
+        <v>3.301277634621329</v>
       </c>
       <c r="C23">
-        <v>1.149629491838311</v>
+        <v>1.148938400726507</v>
       </c>
       <c r="D23">
-        <v>0.003835710399109793</v>
+        <v>0.003858826159537365</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>2.075089330600065</v>
+        <v>2.072130701080482</v>
       </c>
       <c r="G23">
-        <v>1.526357615874545</v>
+        <v>0.5094453724603625</v>
       </c>
       <c r="H23">
-        <v>0.8844020986169028</v>
+        <v>1.017644729117663</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>0.8826972202133021</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1240,36 +1306,39 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>5.4957038407791</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>5.495498051019268</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.81909625189212</v>
+        <v>2.818826765028348</v>
       </c>
       <c r="C24">
-        <v>0.9807754772984367</v>
+        <v>0.9802151234027292</v>
       </c>
       <c r="D24">
-        <v>0.005150224680731341</v>
+        <v>0.00516983057405529</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1.760769031029682</v>
+        <v>1.758270307105789</v>
       </c>
       <c r="G24">
-        <v>1.297468117840268</v>
+        <v>0.4287380608416953</v>
       </c>
       <c r="H24">
-        <v>0.7662928643684168</v>
+        <v>0.8700892096479862</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>0.7648423298071307</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1278,36 +1347,39 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>4.458103261341549</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>4.457985674544332</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.3053589154581</v>
+        <v>2.305192191269384</v>
       </c>
       <c r="C25">
-        <v>0.8021777826452023</v>
+        <v>0.8017471647729337</v>
       </c>
       <c r="D25">
-        <v>0.006704265400083287</v>
+        <v>0.006719040148399635</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>1.446924689188577</v>
+        <v>1.444885413445306</v>
       </c>
       <c r="G25">
-        <v>1.070716473356327</v>
+        <v>0.3483955745972338</v>
       </c>
       <c r="H25">
-        <v>0.6529938532919317</v>
+        <v>0.7243093151512028</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>0.6517979755391181</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1316,7 +1388,10 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>3.466474260004901</v>
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>3.466415677607216</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_20/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_20/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,989 +409,1139 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.931036925196253</v>
+        <v>2.348772076603098</v>
       </c>
       <c r="C2">
-        <v>0.6724237227965375</v>
+        <v>0.52886029299043</v>
       </c>
       <c r="D2">
-        <v>0.007943505542635343</v>
+        <v>0.1067387635075789</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.229979463237768</v>
+        <v>2.486741944925683</v>
       </c>
       <c r="G2">
-        <v>0.2934173274935858</v>
+        <v>0.0008045944376037086</v>
       </c>
       <c r="H2">
-        <v>0.625446749946633</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>0.5775329256715978</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.4362681654760365</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.6435092420627058</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>2.803296769017663</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>1.583951633167302</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.679120880926291</v>
+        <v>2.030524715102104</v>
       </c>
       <c r="C3">
-        <v>0.5856473374516327</v>
+        <v>0.4562072445279171</v>
       </c>
       <c r="D3">
-        <v>0.008813918371487262</v>
+        <v>0.09356569401379033</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.091910908035132</v>
+        <v>2.271123103707922</v>
       </c>
       <c r="G3">
-        <v>0.2581338329422351</v>
+        <v>0.0008129196786888199</v>
       </c>
       <c r="H3">
-        <v>0.5625320899060355</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>0.5315664607270421</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.3838532511988859</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.5556793802809352</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>2.381246770239287</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>1.453487679475174</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.524993391306538</v>
+        <v>1.83794785334436</v>
       </c>
       <c r="C4">
-        <v>0.5326652314064404</v>
+        <v>0.4121631480284123</v>
       </c>
       <c r="D4">
-        <v>0.009365394754052403</v>
+        <v>0.08557797969420022</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.010230533630917</v>
+        <v>2.144168936381249</v>
       </c>
       <c r="G4">
-        <v>0.2372692069987821</v>
+        <v>0.0008181597212559401</v>
       </c>
       <c r="H4">
-        <v>0.525583436421492</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>0.5051548223395272</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.3525046461358272</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.5025052793579761</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>2.132031042124424</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>1.37698935970927</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.462287343420968</v>
+        <v>1.760080846540291</v>
       </c>
       <c r="C5">
-        <v>0.5111322956977631</v>
+        <v>0.3943332766360186</v>
       </c>
       <c r="D5">
-        <v>0.009594037163917157</v>
+        <v>0.08234515636263495</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.9776381037425637</v>
+        <v>2.093668886919147</v>
       </c>
       <c r="G5">
-        <v>0.2289446178682795</v>
+        <v>0.0008203290460835341</v>
       </c>
       <c r="H5">
-        <v>0.5109050946223874</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>0.4948024920683523</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.339915375383228</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.4809978162473598</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>2.03252891892032</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>1.346635609086746</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.451880205496195</v>
+        <v>1.747185107406523</v>
       </c>
       <c r="C6">
-        <v>0.5075597651633075</v>
+        <v>0.3913791435536211</v>
       </c>
       <c r="D6">
-        <v>0.00963222949705056</v>
+        <v>0.08180960732956066</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.9722656734709574</v>
+        <v>2.085354313267317</v>
       </c>
       <c r="G6">
-        <v>0.2275724369808074</v>
+        <v>0.0008206913593507219</v>
       </c>
       <c r="H6">
-        <v>0.5084894164156921</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>0.493107063400835</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.337835473129914</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.4774354919039112</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>2.016119202878897</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>1.341642505434677</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.524147348243304</v>
+        <v>1.836895371117691</v>
       </c>
       <c r="C7">
-        <v>0.5323746192962631</v>
+        <v>0.4119222382330463</v>
       </c>
       <c r="D7">
-        <v>0.009368462919048248</v>
+        <v>0.08553429451961847</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.009788281491126</v>
+        <v>2.143483042152269</v>
       </c>
       <c r="G7">
-        <v>0.2371562472836004</v>
+        <v>0.000818188837786437</v>
       </c>
       <c r="H7">
-        <v>0.5253840018741442</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>0.5050136008642596</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.3523341421228849</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>0.5022146040080386</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>2.13068133250168</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>1.37657678833088</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.844039663942851</v>
+        <v>2.238389289465772</v>
       </c>
       <c r="C8">
-        <v>0.6424302670799875</v>
+        <v>0.5036772623754757</v>
       </c>
       <c r="D8">
-        <v>0.008239843165751104</v>
+        <v>0.1021738698523507</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.181677320174273</v>
+        <v>2.411184909659326</v>
       </c>
       <c r="G8">
-        <v>0.2810709540639067</v>
+        <v>0.0008074394179323309</v>
       </c>
       <c r="H8">
-        <v>0.6033768243436981</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>0.5612790674956543</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.4180070271102636</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>0.613051299328788</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>2.655425944389449</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>1.538164196815487</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.477465878612406</v>
+        <v>3.053286302088793</v>
       </c>
       <c r="C9">
-        <v>0.8614801608529774</v>
+        <v>0.68929336399205</v>
       </c>
       <c r="D9">
-        <v>0.006182339296949557</v>
+        <v>0.1357583563508911</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.547645941234563</v>
+        <v>2.98591972695084</v>
       </c>
       <c r="G9">
-        <v>0.3747159799579123</v>
+        <v>0.0007872930020312863</v>
       </c>
       <c r="H9">
-        <v>0.7719198272319261</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>0.6882993739163723</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.5546345862028517</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>0.8378045408551742</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>3.787710975497035</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>1.888022913918348</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.949159840544098</v>
+        <v>3.6768908871191</v>
       </c>
       <c r="C10">
-        <v>1.025686048936109</v>
+        <v>0.8310371652374045</v>
       </c>
       <c r="D10">
-        <v>0.004801490196971514</v>
+        <v>0.1612629188928167</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1.841160036543044</v>
+        <v>3.44894172622034</v>
       </c>
       <c r="G10">
-        <v>0.4500275302001597</v>
+        <v>0.0007729275741304818</v>
       </c>
       <c r="H10">
-        <v>0.9089188947506983</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>0.795548532106146</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.6617264148836313</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>1.009691262271147</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>4.726956136698561</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>2.172029009795523</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.165699093706507</v>
+        <v>3.968099051025149</v>
       </c>
       <c r="C11">
-        <v>1.101409709292227</v>
+        <v>0.8971869838320004</v>
       </c>
       <c r="D11">
-        <v>0.004212529296800938</v>
+        <v>0.1731107613512535</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1.981961748027274</v>
+        <v>3.6711445759708</v>
       </c>
       <c r="G11">
-        <v>0.4862319712826633</v>
+        <v>0.0007664528590558483</v>
       </c>
       <c r="H11">
-        <v>0.9751100306250464</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>0.8484061861889387</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.712406958874567</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>1.089941444939598</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>5.191841545758081</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>2.3088690700352</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.248024804236195</v>
+        <v>4.079658616807762</v>
       </c>
       <c r="C12">
-        <v>1.130258965017418</v>
+        <v>0.9225251744011302</v>
       </c>
       <c r="D12">
-        <v>0.003996344235303262</v>
+        <v>0.1776388420561972</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>2.036525823533239</v>
+        <v>3.757214555909258</v>
       </c>
       <c r="G12">
-        <v>0.500276431347757</v>
+        <v>0.0007640064160091826</v>
       </c>
       <c r="H12">
-        <v>1.000835875631537</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>0.8691166366412517</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.7319299313967207</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>1.120682972118786</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>5.374998756212946</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>2.361959526008917</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.230279283365462</v>
+        <v>4.055571561247007</v>
       </c>
       <c r="C13">
-        <v>1.124037571690451</v>
+        <v>0.9170544517080259</v>
       </c>
       <c r="D13">
-        <v>0.004042576719991864</v>
+        <v>0.1766616817404554</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>2.024715462999666</v>
+        <v>3.738587578026454</v>
       </c>
       <c r="G13">
-        <v>0.4972358191776749</v>
+        <v>0.0007645331182048966</v>
       </c>
       <c r="H13">
-        <v>0.9952640684013687</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>0.8646233832545391</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.7277097174132479</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>1.114045567567004</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>5.335202509613111</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>2.350465952543942</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.172465285484463</v>
+        <v>3.977250098472553</v>
       </c>
       <c r="C14">
-        <v>1.1037795040167</v>
+        <v>0.8992654825372597</v>
       </c>
       <c r="D14">
-        <v>0.004194598494566826</v>
+        <v>0.1734824175129717</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1.986424518597531</v>
+        <v>3.678185356541064</v>
       </c>
       <c r="G14">
-        <v>0.4873803539550039</v>
+        <v>0.0007662515009225175</v>
       </c>
       <c r="H14">
-        <v>0.977212593444861</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>0.8500954180146181</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.7140061792175203</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>1.092463150849483</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>5.206755517936571</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>2.313210281394703</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.137096382700975</v>
+        <v>3.929449841945143</v>
       </c>
       <c r="C15">
-        <v>1.091394369617774</v>
+        <v>0.8884083840117114</v>
       </c>
       <c r="D15">
-        <v>0.004288648209894497</v>
+        <v>0.1715406386156246</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>1.963139011778281</v>
+        <v>3.641446574721385</v>
       </c>
       <c r="G15">
-        <v>0.4813890059906356</v>
+        <v>0.0007673046574888479</v>
       </c>
       <c r="H15">
-        <v>0.9662450554625082</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>0.8412907035868926</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.7056570906927249</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>1.079291022909985</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>5.129065191193263</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>2.290561318331484</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.935051896370112</v>
+        <v>3.658027931329286</v>
       </c>
       <c r="C16">
-        <v>1.020760242489814</v>
+        <v>0.826751714525443</v>
       </c>
       <c r="D16">
-        <v>0.004840865239552627</v>
+        <v>0.1604940914312039</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>1.832120893761328</v>
+        <v>3.434674725018596</v>
       </c>
       <c r="G16">
-        <v>0.4477050627915702</v>
+        <v>0.0007733516539901788</v>
       </c>
       <c r="H16">
-        <v>0.9046794478374522</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>0.792184861619468</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.6584578686060354</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>1.004492795462994</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>4.697465061880592</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>2.163254246765774</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.811639743782166</v>
+        <v>3.493583090293896</v>
       </c>
       <c r="C17">
-        <v>0.9777099618760019</v>
+        <v>0.7893874474562779</v>
       </c>
       <c r="D17">
-        <v>0.005190439389964219</v>
+        <v>0.1537844864594291</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>1.753739527346113</v>
+        <v>3.310966373864687</v>
       </c>
       <c r="G17">
-        <v>0.4275748676238322</v>
+        <v>0.0007770745185111781</v>
       </c>
       <c r="H17">
-        <v>0.8679698151714632</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>0.7631730334561979</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.6300383836382224</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>0.9591714554420179</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>4.443375565716636</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>2.087228996941676</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.740838535409182</v>
+        <v>3.399693590768379</v>
       </c>
       <c r="C18">
-        <v>0.9530434180827854</v>
+        <v>0.7680503951670801</v>
       </c>
       <c r="D18">
-        <v>0.005395107195043991</v>
+        <v>0.1499480040843082</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1.709328043271555</v>
+        <v>3.240884093958982</v>
       </c>
       <c r="G18">
-        <v>0.416175714079202</v>
+        <v>0.0007792216965462062</v>
       </c>
       <c r="H18">
-        <v>0.8472123245786349</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>0.7468615440502759</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.6138737953898499</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>0.9332937141095385</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>4.30064267455306</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>2.044209142781455</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.716896343339499</v>
+        <v>3.368017820127875</v>
       </c>
       <c r="C19">
-        <v>0.9447072367964893</v>
+        <v>0.7608510975134095</v>
       </c>
       <c r="D19">
-        <v>0.005464990773747402</v>
+        <v>0.1486527606483747</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1.694400969047138</v>
+        <v>3.2173320478216</v>
       </c>
       <c r="G19">
-        <v>0.4123454378809868</v>
+        <v>0.0007799497971594474</v>
       </c>
       <c r="H19">
-        <v>0.8402426528093088</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>0.741400256362958</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.6084305437591695</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>0.9245629721696389</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>4.252858554329222</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>2.029760050275129</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.824757986624832</v>
+        <v>3.51101523142853</v>
       </c>
       <c r="C20">
-        <v>0.9822827306369959</v>
+        <v>0.7933486811558907</v>
       </c>
       <c r="D20">
-        <v>0.005152846033826819</v>
+        <v>0.1544963430946638</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1.762012557248823</v>
+        <v>3.324022656823757</v>
       </c>
       <c r="G20">
-        <v>0.4296988520920166</v>
+        <v>0.0007766776265189761</v>
       </c>
       <c r="H20">
-        <v>0.8718399901640481</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>0.766221827118116</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.6330445642045106</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>0.9639759512047874</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>4.470060019942196</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>2.095247577592374</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.189437448945796</v>
+        <v>4.000218366437423</v>
       </c>
       <c r="C21">
-        <v>1.109724839745525</v>
+        <v>0.9044822763881655</v>
       </c>
       <c r="D21">
-        <v>0.004149749185366147</v>
+        <v>0.1744150625086576</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1.99763590341945</v>
+        <v>3.695872388347141</v>
       </c>
       <c r="G21">
-        <v>0.4902655643478369</v>
+        <v>0.0007657466522667105</v>
       </c>
       <c r="H21">
-        <v>0.9824958764869507</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>0.8543427960327463</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>0.7180218225320374</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>1.098792371268857</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>5.244273869563131</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>2.324117151034145</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.429698992280748</v>
+        <v>4.327548778085259</v>
       </c>
       <c r="C22">
-        <v>1.194044636785833</v>
+        <v>0.9788251621068298</v>
       </c>
       <c r="D22">
-        <v>0.003534849554396757</v>
+        <v>0.1876788982399091</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>2.159014569288431</v>
+        <v>3.950277321359948</v>
       </c>
       <c r="G22">
-        <v>0.5318347921624991</v>
+        <v>0.0007586321967216273</v>
       </c>
       <c r="H22">
-        <v>1.058732989252746</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>0.9160525446662717</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>0.7755188114517466</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>1.188989844043689</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>5.793016879896385</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>2.481210190655773</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.301277634621329</v>
+        <v>4.152075454146882</v>
       </c>
       <c r="C23">
-        <v>1.148938400726507</v>
+        <v>0.9389724588660613</v>
       </c>
       <c r="D23">
-        <v>0.003858826159537365</v>
+        <v>0.180574951596725</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>2.072130701080482</v>
+        <v>3.813358557351791</v>
       </c>
       <c r="G23">
-        <v>0.5094453724603625</v>
+        <v>0.0007624278099756241</v>
       </c>
       <c r="H23">
-        <v>1.017644729117663</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>0.8826972202133021</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>0.7446342117316931</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>1.140637903478449</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>5.495498051019268</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>2.396615436566734</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.818826765028348</v>
+        <v>3.503132144452877</v>
       </c>
       <c r="C24">
-        <v>0.9802151234027292</v>
+        <v>0.7915573619407894</v>
       </c>
       <c r="D24">
-        <v>0.00516983057405529</v>
+        <v>0.1541744478866462</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1.758270307105789</v>
+        <v>3.318116693474366</v>
       </c>
       <c r="G24">
-        <v>0.4287380608416953</v>
+        <v>0.0007768570398203778</v>
       </c>
       <c r="H24">
-        <v>0.8700892096479862</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>0.7648423298071307</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>0.631684931128575</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>0.9618032880955525</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>4.457985674544332</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>2.091620246827404</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.305192191269384</v>
+        <v>2.829106511107909</v>
       </c>
       <c r="C25">
-        <v>0.8017471647729337</v>
+        <v>0.6382882822453837</v>
       </c>
       <c r="D25">
-        <v>0.006719040148399635</v>
+        <v>0.1265469023774131</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>1.444885413445306</v>
+        <v>2.82410894480654</v>
       </c>
       <c r="G25">
-        <v>0.3483955745972338</v>
+        <v>0.0007926560428151985</v>
       </c>
       <c r="H25">
-        <v>0.7243093151512028</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>0.6517979755391181</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.5166484450029003</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>0.7759946678817471</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>3.466415677607216</v>
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>1.789186791073007</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_20/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_20/res_line/pl_mw.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.348772076603098</v>
+        <v>2.636079898379933</v>
       </c>
       <c r="C2">
-        <v>0.52886029299043</v>
+        <v>0.3810674346066492</v>
       </c>
       <c r="D2">
-        <v>0.1067387635075789</v>
+        <v>0.03831747717636347</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>2.486741944925683</v>
+        <v>0.5539808904376713</v>
       </c>
       <c r="G2">
-        <v>0.0008045944376037086</v>
+        <v>0.0007825931835335872</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.2741362202547677</v>
       </c>
       <c r="J2">
-        <v>0.4362681654760365</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>0.6435092420627058</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.4095783167474565</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.6749764248418302</v>
       </c>
       <c r="O2">
-        <v>1.583951633167302</v>
+        <v>1.563595963824497</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.030524715102104</v>
+        <v>2.291154003306303</v>
       </c>
       <c r="C3">
-        <v>0.4562072445279171</v>
+        <v>0.3465494208537194</v>
       </c>
       <c r="D3">
-        <v>0.09356569401379033</v>
+        <v>0.03437946918344181</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>2.271123103707922</v>
+        <v>0.5045702134741177</v>
       </c>
       <c r="G3">
-        <v>0.0008129196786888199</v>
+        <v>0.0007866700857523648</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.2688779681418261</v>
       </c>
       <c r="J3">
-        <v>0.3838532511988859</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>0.5556793802809352</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.3608500127706975</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>0.690317786712761</v>
       </c>
       <c r="O3">
-        <v>1.453487679475174</v>
+        <v>1.447346666865542</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.83794785334436</v>
+        <v>2.079772080885618</v>
       </c>
       <c r="C4">
-        <v>0.4121631480284123</v>
+        <v>0.3253038132230301</v>
       </c>
       <c r="D4">
-        <v>0.08557797969420022</v>
+        <v>0.03195389784662694</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>2.144168936381249</v>
+        <v>0.4753216901873287</v>
       </c>
       <c r="G4">
-        <v>0.0008181597212559401</v>
+        <v>0.0007892580440428589</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.2664397969087062</v>
       </c>
       <c r="J4">
-        <v>0.3525046461358272</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>0.5025052793579761</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.3313586723623132</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>0.7006859437890967</v>
       </c>
       <c r="O4">
-        <v>1.37698935970927</v>
+        <v>1.37949545994806</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.760080846540291</v>
+        <v>1.993704387061541</v>
       </c>
       <c r="C5">
-        <v>0.3943332766360186</v>
+        <v>0.3166314048143448</v>
       </c>
       <c r="D5">
-        <v>0.08234515636263495</v>
+        <v>0.03096339505353285</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>2.093668886919147</v>
+        <v>0.4636579493393498</v>
       </c>
       <c r="G5">
-        <v>0.0008203290460835341</v>
+        <v>0.0007903343460055498</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.2656347026314556</v>
       </c>
       <c r="J5">
-        <v>0.339915375383228</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>0.4809978162473598</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.3194385490478027</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>0.7051419726928927</v>
       </c>
       <c r="O5">
-        <v>1.346635609086746</v>
+        <v>1.352674944861377</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.747185107406523</v>
+        <v>1.979416444035053</v>
       </c>
       <c r="C6">
-        <v>0.3913791435536211</v>
+        <v>0.3151904253342934</v>
       </c>
       <c r="D6">
-        <v>0.08180960732956066</v>
+        <v>0.03079879414193698</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>2.085354313267317</v>
+        <v>0.4617360804340507</v>
       </c>
       <c r="G6">
-        <v>0.0008206913593507219</v>
+        <v>0.0007905143859396566</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.2655121100041811</v>
       </c>
       <c r="J6">
-        <v>0.337835473129914</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>0.4774354919039112</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.317464854032707</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>0.7058956257948594</v>
       </c>
       <c r="O6">
-        <v>1.341642505434677</v>
+        <v>1.348269891253921</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.836895371117691</v>
+        <v>2.07861108731629</v>
       </c>
       <c r="C7">
-        <v>0.4119222382330463</v>
+        <v>0.3251869155928233</v>
       </c>
       <c r="D7">
-        <v>0.08553429451961847</v>
+        <v>0.03194054811844893</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>2.143483042152269</v>
+        <v>0.4751633794581522</v>
       </c>
       <c r="G7">
-        <v>0.000818188837786437</v>
+        <v>0.0007892724710877016</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.2664281891948868</v>
       </c>
       <c r="J7">
-        <v>0.3523341421228849</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>0.5022146040080386</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.3311975298495327</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>0.7007451140909566</v>
       </c>
       <c r="O7">
-        <v>1.37657678833088</v>
+        <v>1.379130464542015</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.238389289465772</v>
+        <v>2.517047237421366</v>
       </c>
       <c r="C8">
-        <v>0.5036772623754757</v>
+        <v>0.3691752032877531</v>
       </c>
       <c r="D8">
-        <v>0.1021738698523507</v>
+        <v>0.03696114028056741</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>2.411184909659326</v>
+        <v>0.5367062856129294</v>
       </c>
       <c r="G8">
-        <v>0.0008074394179323309</v>
+        <v>0.0007839815516229479</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>0.2721527810824753</v>
       </c>
       <c r="J8">
-        <v>0.4180070271102636</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>0.613051299328788</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.3926818904990199</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>0.6800645746645912</v>
       </c>
       <c r="O8">
-        <v>1.538164196815487</v>
+        <v>1.522745877065944</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.053286302088793</v>
+        <v>3.38148418347015</v>
       </c>
       <c r="C9">
-        <v>0.68929336399205</v>
+        <v>0.4551171472332669</v>
       </c>
       <c r="D9">
-        <v>0.1357583563508911</v>
+        <v>0.04675370081243102</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>2.98591972695084</v>
+        <v>0.6669395947156289</v>
       </c>
       <c r="G9">
-        <v>0.0007872930020312863</v>
+        <v>0.0007742599718673789</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>0.2901400001025181</v>
       </c>
       <c r="J9">
-        <v>0.5546345862028517</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>0.8378045408551742</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.5171221899272638</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>0.6473979140479216</v>
       </c>
       <c r="O9">
-        <v>1.888022913918348</v>
+        <v>1.835102349377934</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.6768908871191</v>
+        <v>4.02166296781985</v>
       </c>
       <c r="C10">
-        <v>0.8310371652374045</v>
+        <v>0.5182052022236974</v>
       </c>
       <c r="D10">
-        <v>0.1612629188928167</v>
+        <v>0.05392825001089818</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>3.44894172622034</v>
+        <v>0.7697792608627623</v>
       </c>
       <c r="G10">
-        <v>0.0007729275741304818</v>
+        <v>0.0007674890261479449</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>0.3081995829328648</v>
       </c>
       <c r="J10">
-        <v>0.6617264148836313</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>1.009691262271147</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.6116150093629074</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>0.628739945119591</v>
       </c>
       <c r="O10">
-        <v>2.172029009795523</v>
+        <v>2.087398785875536</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.968099051025149</v>
+        <v>4.314540056238798</v>
       </c>
       <c r="C11">
-        <v>0.8971869838320004</v>
+        <v>0.546928989380234</v>
       </c>
       <c r="D11">
-        <v>0.1731107613512535</v>
+        <v>0.05719076048163174</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>3.6711445759708</v>
+        <v>0.8184369186124911</v>
       </c>
       <c r="G11">
-        <v>0.0007664528590558483</v>
+        <v>0.0007644830155127838</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.3176393197758784</v>
       </c>
       <c r="J11">
-        <v>0.712406958874567</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>1.089941444939598</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.655437425532412</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>0.6215392033391183</v>
       </c>
       <c r="O11">
-        <v>2.3088690700352</v>
+        <v>2.208101828563997</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.079658616807762</v>
+        <v>4.425730849926708</v>
       </c>
       <c r="C12">
-        <v>0.9225251744011302</v>
+        <v>0.5578125853347444</v>
       </c>
       <c r="D12">
-        <v>0.1776388420561972</v>
+        <v>0.0584262660299828</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>3.757214555909258</v>
+        <v>0.8371605420353063</v>
       </c>
       <c r="G12">
-        <v>0.0007640064160091826</v>
+        <v>0.0007633548159247681</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>0.3214054224586533</v>
       </c>
       <c r="J12">
-        <v>0.7319299313967207</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>1.120682972118786</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.6721672895152864</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>0.6190090037851235</v>
       </c>
       <c r="O12">
-        <v>2.361959526008917</v>
+        <v>2.254749411220644</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.055571561247007</v>
+        <v>4.401770486559883</v>
       </c>
       <c r="C13">
-        <v>0.9170544517080259</v>
+        <v>0.5554682678329925</v>
       </c>
       <c r="D13">
-        <v>0.1766616817404554</v>
+        <v>0.05816017092742953</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>3.738587578026454</v>
+        <v>0.8331143460933248</v>
       </c>
       <c r="G13">
-        <v>0.0007645331182048966</v>
+        <v>0.0007635973533520221</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>0.3205855512140587</v>
       </c>
       <c r="J13">
-        <v>0.7277097174132479</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>1.114045567567004</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.6685579490068392</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>0.6195449932217372</v>
       </c>
       <c r="O13">
-        <v>2.350465952543942</v>
+        <v>2.24465976057914</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.977250098472553</v>
+        <v>4.323681806908553</v>
       </c>
       <c r="C14">
-        <v>0.8992654825372597</v>
+        <v>0.5478242406496747</v>
       </c>
       <c r="D14">
-        <v>0.1734824175129717</v>
+        <v>0.05729240354160225</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>3.678185356541064</v>
+        <v>0.8199711796680162</v>
       </c>
       <c r="G14">
-        <v>0.0007662515009225175</v>
+        <v>0.0007643899985085426</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>0.3179452294614009</v>
       </c>
       <c r="J14">
-        <v>0.7140061792175203</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>1.092463150849483</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.6568110013465258</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>0.621327034001034</v>
       </c>
       <c r="O14">
-        <v>2.313210281394703</v>
+        <v>2.211920193909407</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.929449841945143</v>
+        <v>4.275888739444156</v>
       </c>
       <c r="C15">
-        <v>0.8884083840117114</v>
+        <v>0.5431429955071394</v>
       </c>
       <c r="D15">
-        <v>0.1715406386156246</v>
+        <v>0.05676088673045143</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>3.641446574721385</v>
+        <v>0.8119602993713642</v>
       </c>
       <c r="G15">
-        <v>0.0007673046574888479</v>
+        <v>0.0007648768163963042</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>0.3163533691233624</v>
       </c>
       <c r="J15">
-        <v>0.7056570906927249</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>1.079291022909985</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.649633733071127</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>0.6224445395516724</v>
       </c>
       <c r="O15">
-        <v>2.290561318331484</v>
+        <v>2.19199136539325</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.658027931329286</v>
+        <v>4.002559976264138</v>
       </c>
       <c r="C16">
-        <v>0.826751714525443</v>
+        <v>0.5163287796736427</v>
       </c>
       <c r="D16">
-        <v>0.1604940914312039</v>
+        <v>0.0537150326400706</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>3.434674725018596</v>
+        <v>0.7666394820853526</v>
       </c>
       <c r="G16">
-        <v>0.0007733516539901788</v>
+        <v>0.0007676869216838482</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>0.3076086039111132</v>
       </c>
       <c r="J16">
-        <v>0.6584578686060354</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>1.004492795462994</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.6087692044695956</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>0.629237391760654</v>
       </c>
       <c r="O16">
-        <v>2.163254246765774</v>
+        <v>2.079637212575165</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.493583090293896</v>
+        <v>3.835337763420682</v>
       </c>
       <c r="C17">
-        <v>0.7893874474562779</v>
+        <v>0.4998874792547952</v>
       </c>
       <c r="D17">
-        <v>0.1537844864594291</v>
+        <v>0.05184634985229764</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>3.310966373864687</v>
+        <v>0.7393364829769524</v>
       </c>
       <c r="G17">
-        <v>0.0007770745185111781</v>
+        <v>0.0007694294374754856</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>0.3025681850685942</v>
       </c>
       <c r="J17">
-        <v>0.6300383836382224</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>0.9591714554420179</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.5839248033000075</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>0.6337421275034103</v>
       </c>
       <c r="O17">
-        <v>2.087228996941676</v>
+        <v>2.012290789070164</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.399693590768379</v>
+        <v>3.739308900356662</v>
       </c>
       <c r="C18">
-        <v>0.7680503951670801</v>
+        <v>0.4904330102882284</v>
       </c>
       <c r="D18">
-        <v>0.1499480040843082</v>
+        <v>0.05077140178818951</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>3.240884093958982</v>
+        <v>0.7238072237023943</v>
       </c>
       <c r="G18">
-        <v>0.0007792216965462062</v>
+        <v>0.000770438698470891</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>0.299783323892477</v>
       </c>
       <c r="J18">
-        <v>0.6138737953898499</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>0.9332937141095385</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.5697128038951433</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>0.6364535222478764</v>
       </c>
       <c r="O18">
-        <v>2.044209142781455</v>
+        <v>1.974107695233386</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.368017820127875</v>
+        <v>3.706820089919177</v>
       </c>
       <c r="C19">
-        <v>0.7608510975134095</v>
+        <v>0.4872321699400288</v>
       </c>
       <c r="D19">
-        <v>0.1486527606483747</v>
+        <v>0.05040741332943099</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>3.2173320478216</v>
+        <v>0.7185784585438455</v>
       </c>
       <c r="G19">
-        <v>0.0007799497971594474</v>
+        <v>0.0007707816372891732</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.2988595890274297</v>
       </c>
       <c r="J19">
-        <v>0.6084305437591695</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>0.9245629721696389</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.5649137989810384</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>0.6373918930126479</v>
       </c>
       <c r="O19">
-        <v>2.029760050275129</v>
+        <v>1.961271952625083</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.51101523142853</v>
+        <v>3.853122701448399</v>
       </c>
       <c r="C20">
-        <v>0.7933486811558907</v>
+        <v>0.5016374424903347</v>
       </c>
       <c r="D20">
-        <v>0.1544963430946638</v>
+        <v>0.05204528622323323</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>3.324022656823757</v>
+        <v>0.7422246539105117</v>
       </c>
       <c r="G20">
-        <v>0.0007766776265189761</v>
+        <v>0.0007692432217765933</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>0.3030928131678792</v>
       </c>
       <c r="J20">
-        <v>0.6330445642045106</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>0.9639759512047874</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.5865613714413485</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>0.6332500499150981</v>
       </c>
       <c r="O20">
-        <v>2.095247577592374</v>
+        <v>2.019402110129846</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.000218366437423</v>
+        <v>4.346610232769137</v>
       </c>
       <c r="C21">
-        <v>0.9044822763881655</v>
+        <v>0.5500692746604727</v>
       </c>
       <c r="D21">
-        <v>0.1744150625086576</v>
+        <v>0.05754728411359622</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>3.695872388347141</v>
+        <v>0.823823321588165</v>
       </c>
       <c r="G21">
-        <v>0.0007657466522667105</v>
+        <v>0.0007641569095370628</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>0.3187154308096538</v>
       </c>
       <c r="J21">
-        <v>0.7180218225320374</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>1.098792371268857</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.6602575693779471</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>0.6207981749166223</v>
       </c>
       <c r="O21">
-        <v>2.324117151034145</v>
+        <v>2.221510362831083</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.327548778085259</v>
+        <v>4.670815996212355</v>
       </c>
       <c r="C22">
-        <v>0.9788251621068298</v>
+        <v>0.5817618766489261</v>
       </c>
       <c r="D22">
-        <v>0.1876788982399091</v>
+        <v>0.06114365531994537</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>3.950277321359948</v>
+        <v>0.8789045823529591</v>
       </c>
       <c r="G22">
-        <v>0.0007586321967216273</v>
+        <v>0.000760891365715441</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>0.3300497820348198</v>
       </c>
       <c r="J22">
-        <v>0.7755188114517466</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>1.188989844043689</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.7092184563004196</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>0.6138118214978618</v>
       </c>
       <c r="O22">
-        <v>2.481210190655773</v>
+        <v>2.359123733410144</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.152075454146882</v>
+        <v>4.497610948452177</v>
       </c>
       <c r="C23">
-        <v>0.9389724588660613</v>
+        <v>0.564842257999004</v>
       </c>
       <c r="D23">
-        <v>0.180574951596725</v>
+        <v>0.0592240739684442</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>3.813358557351791</v>
+        <v>0.8493364622293029</v>
       </c>
       <c r="G23">
-        <v>0.0007624278099756241</v>
+        <v>0.0007626290718528578</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>0.3238921809438295</v>
       </c>
       <c r="J23">
-        <v>0.7446342117316931</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>1.140637903478449</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.6830090469978956</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>0.6174311736992308</v>
       </c>
       <c r="O23">
-        <v>2.396615436566734</v>
+        <v>2.285140994379105</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.503132144452877</v>
+        <v>3.845081793624956</v>
       </c>
       <c r="C24">
-        <v>0.7915573619407894</v>
+        <v>0.5008462910174956</v>
       </c>
       <c r="D24">
-        <v>0.1541744478866462</v>
+        <v>0.05195534903115373</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>3.318116693474366</v>
+        <v>0.7409183919176598</v>
       </c>
       <c r="G24">
-        <v>0.0007768570398203778</v>
+        <v>0.0007693273865881362</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>0.3028552781655023</v>
       </c>
       <c r="J24">
-        <v>0.631684931128575</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>0.9618032880955525</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.5853691577708275</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>0.633472140415229</v>
       </c>
       <c r="O24">
-        <v>2.091620246827404</v>
+        <v>2.01618542115196</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.829106511107909</v>
+        <v>3.146910898088663</v>
       </c>
       <c r="C25">
-        <v>0.6382882822453837</v>
+        <v>0.4318879090137102</v>
       </c>
       <c r="D25">
-        <v>0.1265469023774131</v>
+        <v>0.04410900872150592</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>2.82410894480654</v>
+        <v>0.6305531843114736</v>
       </c>
       <c r="G25">
-        <v>0.0007926560428151985</v>
+        <v>0.0007768226204462048</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>0.2844783730420488</v>
       </c>
       <c r="J25">
-        <v>0.5166484450029003</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>0.7759946678817471</v>
+        <v>0</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.4829733265839025</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>0.6553377441731598</v>
       </c>
       <c r="O25">
-        <v>1.789186791073007</v>
+        <v>1.746907708551646</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_20/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_20/res_line/pl_mw.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.636079898379933</v>
+        <v>1.041080445316823</v>
       </c>
       <c r="C2">
-        <v>0.3810674346066492</v>
+        <v>0.2251125788462787</v>
       </c>
       <c r="D2">
-        <v>0.03831747717636347</v>
+        <v>0.01913225189683487</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.5539808904376713</v>
+        <v>0.6445015020108613</v>
       </c>
       <c r="G2">
-        <v>0.0007825931835335872</v>
+        <v>0.002407840440158571</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.2741362202547677</v>
+        <v>0.5678870897699433</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -451,16 +451,16 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.4095783167474565</v>
+        <v>0.3006213204614312</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.6749764248418302</v>
+        <v>1.061035741188654</v>
       </c>
       <c r="O2">
-        <v>1.563595963824497</v>
+        <v>2.156353728437779</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.291154003306303</v>
+        <v>0.9386921363173428</v>
       </c>
       <c r="C3">
-        <v>0.3465494208537194</v>
+        <v>0.2135994316831926</v>
       </c>
       <c r="D3">
-        <v>0.03437946918344181</v>
+        <v>0.01779548436950051</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.5045702134741177</v>
+        <v>0.6375846673627237</v>
       </c>
       <c r="G3">
-        <v>0.0007866700857523648</v>
+        <v>0.002410606811406165</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.2688779681418261</v>
+        <v>0.5723319223654393</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -498,16 +498,16 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.3608500127706975</v>
+        <v>0.2891276646306125</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.690317786712761</v>
+        <v>1.068791596941715</v>
       </c>
       <c r="O3">
-        <v>1.447346666865542</v>
+        <v>2.147307025768157</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.079772080885618</v>
+        <v>0.875907542782727</v>
       </c>
       <c r="C4">
-        <v>0.3253038132230301</v>
+        <v>0.2064758940172027</v>
       </c>
       <c r="D4">
-        <v>0.03195389784662694</v>
+        <v>0.01696855492318861</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.4753216901873287</v>
+        <v>0.6338077703389757</v>
       </c>
       <c r="G4">
-        <v>0.0007892580440428589</v>
+        <v>0.002412397351715247</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.2664397969087062</v>
+        <v>0.5754438552258314</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -545,16 +545,16 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.3313586723623132</v>
+        <v>0.2822435626249558</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.7006859437890967</v>
+        <v>1.07399297515007</v>
       </c>
       <c r="O4">
-        <v>1.37949545994806</v>
+        <v>2.143310348887184</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.993704387061541</v>
+        <v>0.8503445157002716</v>
       </c>
       <c r="C5">
-        <v>0.3166314048143448</v>
+        <v>0.2035594932028033</v>
       </c>
       <c r="D5">
-        <v>0.03096339505353285</v>
+        <v>0.01663004875400276</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.4636579493393498</v>
+        <v>0.6323867316214375</v>
       </c>
       <c r="G5">
-        <v>0.0007903343460055498</v>
+        <v>0.002413150209214658</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.2656347026314556</v>
+        <v>0.5768081263585572</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -592,16 +592,16 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.3194385490478027</v>
+        <v>0.279481786882684</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.7051419726928927</v>
+        <v>1.07622313339629</v>
       </c>
       <c r="O5">
-        <v>1.352674944861377</v>
+        <v>2.142072949049862</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.979416444035053</v>
+        <v>0.8461011805705994</v>
       </c>
       <c r="C6">
-        <v>0.3151904253342934</v>
+        <v>0.2030744170031511</v>
       </c>
       <c r="D6">
-        <v>0.03079879414193698</v>
+        <v>0.01657374851601645</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.4617360804340507</v>
+        <v>0.6321578971685327</v>
       </c>
       <c r="G6">
-        <v>0.0007905143859396566</v>
+        <v>0.00241327662372618</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.2655121100041811</v>
+        <v>0.577040465183984</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -639,16 +639,16 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.317464854032707</v>
+        <v>0.2790258276516084</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.7058956257948594</v>
+        <v>1.076600129746254</v>
       </c>
       <c r="O6">
-        <v>1.348269891253921</v>
+        <v>2.141891097325328</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.07861108731629</v>
+        <v>0.8755626989329812</v>
       </c>
       <c r="C7">
-        <v>0.3251869155928233</v>
+        <v>0.2064366168396816</v>
       </c>
       <c r="D7">
-        <v>0.03194054811844893</v>
+        <v>0.01696399586123931</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.4751633794581522</v>
+        <v>0.6337881277892663</v>
       </c>
       <c r="G7">
-        <v>0.0007892724710877016</v>
+        <v>0.002412407410950554</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.2664281891948868</v>
+        <v>0.5754618651863588</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -686,16 +686,16 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.3311975298495327</v>
+        <v>0.2822061399617155</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.7007451140909566</v>
+        <v>1.074022604077769</v>
       </c>
       <c r="O7">
-        <v>1.379130464542015</v>
+        <v>2.143292077278886</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.517047237421366</v>
+        <v>1.005760768505468</v>
       </c>
       <c r="C8">
-        <v>0.3691752032877531</v>
+        <v>0.2211542465107641</v>
       </c>
       <c r="D8">
-        <v>0.03696114028056741</v>
+        <v>0.01867262251724355</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.5367062856129294</v>
+        <v>0.642018935821234</v>
       </c>
       <c r="G8">
-        <v>0.0007839815516229479</v>
+        <v>0.002408775236865668</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.2721527810824753</v>
+        <v>0.5693401467490133</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -733,16 +733,16 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.3926818904990199</v>
+        <v>0.2966224095376049</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.6800645746645912</v>
+        <v>1.063618852779314</v>
       </c>
       <c r="O8">
-        <v>1.522745877065944</v>
+        <v>2.152910743598056</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.38148418347015</v>
+        <v>1.261677102275371</v>
       </c>
       <c r="C9">
-        <v>0.4551171472332669</v>
+        <v>0.249576933680288</v>
       </c>
       <c r="D9">
-        <v>0.04675370081243102</v>
+        <v>0.02197369494924573</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.6669395947156289</v>
+        <v>0.661896804175683</v>
       </c>
       <c r="G9">
-        <v>0.0007742599718673789</v>
+        <v>0.002402379194560689</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.2901400001025181</v>
+        <v>0.5603785055491031</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -780,16 +780,16 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.5171221899272638</v>
+        <v>0.3262659472450764</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.6473979140479216</v>
+        <v>1.046698293077576</v>
       </c>
       <c r="O9">
-        <v>1.835102349377934</v>
+        <v>2.184162362785088</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.02166296781985</v>
+        <v>1.450009435968582</v>
       </c>
       <c r="C10">
-        <v>0.5182052022236974</v>
+        <v>0.270184538136931</v>
       </c>
       <c r="D10">
-        <v>0.05392825001089818</v>
+        <v>0.02436799928319289</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.7697792608627623</v>
+        <v>0.6787925108250903</v>
       </c>
       <c r="G10">
-        <v>0.0007674890261479449</v>
+        <v>0.002398118580093426</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.3081995829328648</v>
+        <v>0.5556579149273801</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -827,16 +827,16 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.6116150093629074</v>
+        <v>0.3488852465508927</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.628739945119591</v>
+        <v>1.03638396106129</v>
       </c>
       <c r="O10">
-        <v>2.087398785875536</v>
+        <v>2.214719883207522</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.314540056238798</v>
+        <v>1.535743821801589</v>
       </c>
       <c r="C11">
-        <v>0.546928989380234</v>
+        <v>0.2794984459568184</v>
       </c>
       <c r="D11">
-        <v>0.05719076048163174</v>
+        <v>0.02545034514363209</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.8184369186124911</v>
+        <v>0.6869793362357655</v>
       </c>
       <c r="G11">
-        <v>0.0007644830155127838</v>
+        <v>0.002396274604306952</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.3176393197758784</v>
+        <v>0.553916884569233</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -874,16 +874,16 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.655437425532412</v>
+        <v>0.3593585967682884</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.6215392033391183</v>
+        <v>1.032150497751502</v>
       </c>
       <c r="O11">
-        <v>2.208101828563997</v>
+        <v>2.230280745571065</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.425730849926708</v>
+        <v>1.568216693877446</v>
       </c>
       <c r="C12">
-        <v>0.5578125853347444</v>
+        <v>0.2830165058072964</v>
       </c>
       <c r="D12">
-        <v>0.0584262660299828</v>
+        <v>0.02585920039842904</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>0.8371605420353063</v>
+        <v>0.6901516820536955</v>
       </c>
       <c r="G12">
-        <v>0.0007633548159247681</v>
+        <v>0.00239558981332966</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.3214054224586533</v>
+        <v>0.5533161848748023</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -921,16 +921,16 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.6721672895152864</v>
+        <v>0.363351005192655</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.6190090037851235</v>
+        <v>1.030613271502446</v>
       </c>
       <c r="O12">
-        <v>2.254749411220644</v>
+        <v>2.236412623391288</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.401770486559883</v>
+        <v>1.561222789553312</v>
       </c>
       <c r="C13">
-        <v>0.5554682678329925</v>
+        <v>0.2822592283678489</v>
       </c>
       <c r="D13">
-        <v>0.05816017092742953</v>
+        <v>0.0257711911913816</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0.8331143460933248</v>
+        <v>0.6894652484070889</v>
       </c>
       <c r="G13">
-        <v>0.0007635973533520221</v>
+        <v>0.002395736696766184</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.3205855512140587</v>
+        <v>0.5534429480418055</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -968,16 +968,16 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.6685579490068392</v>
+        <v>0.362489996085003</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.6195449932217372</v>
+        <v>1.030941410729625</v>
       </c>
       <c r="O13">
-        <v>2.24465976057914</v>
+        <v>2.235081360619404</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.323681806908553</v>
+        <v>1.538415251313893</v>
       </c>
       <c r="C14">
-        <v>0.5478242406496747</v>
+        <v>0.2797880586780082</v>
       </c>
       <c r="D14">
-        <v>0.05729240354160225</v>
+        <v>0.02548400219579605</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>0.8199711796680162</v>
+        <v>0.6872388797543749</v>
       </c>
       <c r="G14">
-        <v>0.0007643899985085426</v>
+        <v>0.002396217996183174</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.3179452294614009</v>
+        <v>0.5538662895273205</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1015,16 +1015,16 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.6568110013465258</v>
+        <v>0.3596865261907141</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.621327034001034</v>
+        <v>1.032022708861838</v>
       </c>
       <c r="O14">
-        <v>2.211920193909407</v>
+        <v>2.230780419169889</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.275888739444156</v>
+        <v>1.524445853726945</v>
       </c>
       <c r="C15">
-        <v>0.5431429955071394</v>
+        <v>0.2782732289375076</v>
       </c>
       <c r="D15">
-        <v>0.05676088673045143</v>
+        <v>0.02530795900656102</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.8119602993713642</v>
+        <v>0.685884568002578</v>
       </c>
       <c r="G15">
-        <v>0.0007648768163963042</v>
+        <v>0.002396514560263885</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.3163533691233624</v>
+        <v>0.5541332331670361</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1062,16 +1062,16 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.649633733071127</v>
+        <v>0.3579727539191282</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.6224445395516724</v>
+        <v>1.032693615229128</v>
       </c>
       <c r="O15">
-        <v>2.19199136539325</v>
+        <v>2.228177152159333</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.002559976264138</v>
+        <v>1.44440757899099</v>
       </c>
       <c r="C16">
-        <v>0.5163287796736427</v>
+        <v>0.2695746158011616</v>
       </c>
       <c r="D16">
-        <v>0.0537150326400706</v>
+        <v>0.02429712594998534</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.7666394820853526</v>
+        <v>0.678267574126167</v>
       </c>
       <c r="G16">
-        <v>0.0007676869216838482</v>
+        <v>0.002398240978223786</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.3076086039111132</v>
+        <v>0.5557798859905887</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1109,16 +1109,16 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.6087692044695956</v>
+        <v>0.3482044819117789</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.629237391760654</v>
+        <v>1.036669851350062</v>
       </c>
       <c r="O16">
-        <v>2.079637212575165</v>
+        <v>2.213736400727868</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.835337763420682</v>
+        <v>1.395321147362495</v>
       </c>
       <c r="C17">
-        <v>0.4998874792547952</v>
+        <v>0.2642226351044599</v>
       </c>
       <c r="D17">
-        <v>0.05184634985229764</v>
+        <v>0.02367524576442293</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.7393364829769524</v>
+        <v>0.6737231879502588</v>
       </c>
       <c r="G17">
-        <v>0.0007694294374754856</v>
+        <v>0.002399324161311298</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.3025681850685942</v>
+        <v>0.5568942488813207</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1156,16 +1156,16 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.5839248033000075</v>
+        <v>0.3422589893463339</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.6337421275034103</v>
+        <v>1.039226560219795</v>
       </c>
       <c r="O17">
-        <v>2.012290789070164</v>
+        <v>2.205303083311065</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.739308900356662</v>
+        <v>1.367093776680974</v>
       </c>
       <c r="C18">
-        <v>0.4904330102882284</v>
+        <v>0.2611386259014239</v>
       </c>
       <c r="D18">
-        <v>0.05077140178818951</v>
+        <v>0.02331691472612363</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.7238072237023943</v>
+        <v>0.6711565141078779</v>
       </c>
       <c r="G18">
-        <v>0.000770438698470891</v>
+        <v>0.002399956049687947</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.299783323892477</v>
+        <v>0.5575734432018891</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1203,16 +1203,16 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.5697128038951433</v>
+        <v>0.3388565940871757</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.6364535222478764</v>
+        <v>1.040740277668476</v>
       </c>
       <c r="O18">
-        <v>1.974107695233386</v>
+        <v>2.200608682456817</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.706820089919177</v>
+        <v>1.357537528758996</v>
       </c>
       <c r="C19">
-        <v>0.4872321699400288</v>
+        <v>0.2600934620082569</v>
       </c>
       <c r="D19">
-        <v>0.05040741332943099</v>
+        <v>0.02319548042239461</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.7185784585438455</v>
+        <v>0.6702955737748368</v>
       </c>
       <c r="G19">
-        <v>0.0007707816372891732</v>
+        <v>0.002400171521870341</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.2988595890274297</v>
+        <v>0.5578099702285755</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1250,16 +1250,16 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.5649137989810384</v>
+        <v>0.3377075731344519</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.6373918930126479</v>
+        <v>1.041260211770712</v>
       </c>
       <c r="O19">
-        <v>1.961271952625083</v>
+        <v>2.199046051718057</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.853122701448399</v>
+        <v>1.400545888748752</v>
       </c>
       <c r="C20">
-        <v>0.5016374424903347</v>
+        <v>0.2647929530923818</v>
       </c>
       <c r="D20">
-        <v>0.05204528622323323</v>
+        <v>0.02374151258131718</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>0.7422246539105117</v>
+        <v>0.6742020660605021</v>
       </c>
       <c r="G20">
-        <v>0.0007692432217765933</v>
+        <v>0.00239920793710147</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.3030928131678792</v>
+        <v>0.556771664013219</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1297,16 +1297,16 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.5865613714413485</v>
+        <v>0.342890107523445</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.6332500499150981</v>
+        <v>1.038949927028483</v>
       </c>
       <c r="O20">
-        <v>2.019402110129846</v>
+        <v>2.206184651792341</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.346610232769137</v>
+        <v>1.545114198112401</v>
       </c>
       <c r="C21">
-        <v>0.5500692746604727</v>
+        <v>0.2805141446676771</v>
       </c>
       <c r="D21">
-        <v>0.05754728411359622</v>
+        <v>0.02556838403985751</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>0.823823321588165</v>
+        <v>0.6878908582906575</v>
       </c>
       <c r="G21">
-        <v>0.0007641569095370628</v>
+        <v>0.002396076261421883</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.3187154308096538</v>
+        <v>0.5537403525233699</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1344,16 +1344,16 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.6602575693779471</v>
+        <v>0.3605092576890172</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.6207981749166223</v>
+        <v>1.031703317396797</v>
       </c>
       <c r="O21">
-        <v>2.221510362831083</v>
+        <v>2.232037210188935</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.670815996212355</v>
+        <v>1.639638683284431</v>
       </c>
       <c r="C22">
-        <v>0.5817618766489261</v>
+        <v>0.2907367961933289</v>
       </c>
       <c r="D22">
-        <v>0.06114365531994537</v>
+        <v>0.02675647802089287</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>0.8789045823529591</v>
+        <v>0.6972580199746403</v>
       </c>
       <c r="G22">
-        <v>0.000760891365715441</v>
+        <v>0.002394108088276028</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.3300497820348198</v>
+        <v>0.552100797226295</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1391,16 +1391,16 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.7092184563004196</v>
+        <v>0.3721781229082097</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0.6138118214978618</v>
+        <v>1.027351303053564</v>
       </c>
       <c r="O22">
-        <v>2.359123733410144</v>
+        <v>2.250328549098612</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.497610948452177</v>
+        <v>1.589186006659872</v>
       </c>
       <c r="C23">
-        <v>0.564842257999004</v>
+        <v>0.2852856042293581</v>
       </c>
       <c r="D23">
-        <v>0.0592240739684442</v>
+        <v>0.02612291470812522</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>0.8493364622293029</v>
+        <v>0.6922200433878203</v>
       </c>
       <c r="G23">
-        <v>0.0007626290718528578</v>
+        <v>0.002395151372122454</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.3238921809438295</v>
+        <v>0.5529445537247142</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1438,16 +1438,16 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.6830090469978956</v>
+        <v>0.3659361769092442</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0.6174311736992308</v>
+        <v>1.029638927953556</v>
       </c>
       <c r="O23">
-        <v>2.285140994379105</v>
+        <v>2.240438259969949</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.845081793624956</v>
+        <v>1.39818380461935</v>
       </c>
       <c r="C24">
-        <v>0.5008462910174956</v>
+        <v>0.2645351343822426</v>
       </c>
       <c r="D24">
-        <v>0.05195534903115373</v>
+        <v>0.02371155585541374</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>0.7409183919176598</v>
+        <v>0.673985422132958</v>
       </c>
       <c r="G24">
-        <v>0.0007693273865881362</v>
+        <v>0.002399260453750511</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.3028552781655023</v>
+        <v>0.5568269646166897</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1485,16 +1485,16 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.5853691577708275</v>
+        <v>0.3426047299428632</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0.633472140415229</v>
+        <v>1.039074856355732</v>
       </c>
       <c r="O24">
-        <v>2.01618542115196</v>
+        <v>2.205785614943153</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.146910898088663</v>
+        <v>1.192386510976576</v>
       </c>
       <c r="C25">
-        <v>0.4318879090137102</v>
+        <v>0.2419355385580673</v>
       </c>
       <c r="D25">
-        <v>0.04410900872150592</v>
+        <v>0.02108605302841937</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>0.6305531843114736</v>
+        <v>0.6561178550236164</v>
       </c>
       <c r="G25">
-        <v>0.0007768226204462048</v>
+        <v>0.002404032160699262</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.2844783730420488</v>
+        <v>0.5624762192392794</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1532,16 +1532,16 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.4829733265839025</v>
+        <v>0.3180992538901535</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0.6553377441731598</v>
+        <v>1.050903606898459</v>
       </c>
       <c r="O25">
-        <v>1.746907708551646</v>
+        <v>2.174377037831647</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_20/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_20/res_line/pl_mw.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.041080445316823</v>
+        <v>2.636079898379819</v>
       </c>
       <c r="C2">
-        <v>0.2251125788462787</v>
+        <v>0.3810674346067344</v>
       </c>
       <c r="D2">
-        <v>0.01913225189683487</v>
+        <v>0.03831747717642742</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.6445015020108613</v>
+        <v>0.5539808904376713</v>
       </c>
       <c r="G2">
-        <v>0.002407840440158571</v>
+        <v>0.0007825931835090786</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.5678870897699433</v>
+        <v>0.2741362202547819</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -451,16 +451,16 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.3006213204614312</v>
+        <v>0.4095783167475986</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.061035741188654</v>
+        <v>0.6749764248418799</v>
       </c>
       <c r="O2">
-        <v>2.156353728437779</v>
+        <v>1.563595963824497</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.9386921363173428</v>
+        <v>2.291154003306303</v>
       </c>
       <c r="C3">
-        <v>0.2135994316831926</v>
+        <v>0.3465494208538047</v>
       </c>
       <c r="D3">
-        <v>0.01779548436950051</v>
+        <v>0.03437946918339918</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.6375846673627237</v>
+        <v>0.5045702134741106</v>
       </c>
       <c r="G3">
-        <v>0.002410606811406165</v>
+        <v>0.000786670085868995</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.5723319223654393</v>
+        <v>0.2688779681418225</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -498,16 +498,16 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.2891276646306125</v>
+        <v>0.3608500127706549</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.068791596941715</v>
+        <v>0.690317786712761</v>
       </c>
       <c r="O3">
-        <v>2.147307025768157</v>
+        <v>1.447346666865627</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.875907542782727</v>
+        <v>2.079772080885675</v>
       </c>
       <c r="C4">
-        <v>0.2064758940172027</v>
+        <v>0.3253038132230159</v>
       </c>
       <c r="D4">
-        <v>0.01696855492318861</v>
+        <v>0.03195389784650615</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.6338077703389757</v>
+        <v>0.4753216901873429</v>
       </c>
       <c r="G4">
-        <v>0.002412397351715247</v>
+        <v>0.0007892580440426369</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.5754438552258314</v>
+        <v>0.2664397969087098</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -545,16 +545,16 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.2822435626249558</v>
+        <v>0.3313586723622848</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.07399297515007</v>
+        <v>0.7006859437890895</v>
       </c>
       <c r="O4">
-        <v>2.143310348887184</v>
+        <v>1.379495459948032</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.8503445157002716</v>
+        <v>1.993704387061541</v>
       </c>
       <c r="C5">
-        <v>0.2035594932028033</v>
+        <v>0.3166314048145864</v>
       </c>
       <c r="D5">
-        <v>0.01663004875400276</v>
+        <v>0.03096339505356838</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.6323867316214375</v>
+        <v>0.4636579493393498</v>
       </c>
       <c r="G5">
-        <v>0.002413150209214658</v>
+        <v>0.0007903343460621659</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.5768081263585572</v>
+        <v>0.2656347026314769</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -592,16 +592,16 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.279481786882684</v>
+        <v>0.3194385490478027</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.07622313339629</v>
+        <v>0.7051419726929495</v>
       </c>
       <c r="O5">
-        <v>2.142072949049862</v>
+        <v>1.352674944861263</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.8461011805705994</v>
+        <v>1.979416444034968</v>
       </c>
       <c r="C6">
-        <v>0.2030744170031511</v>
+        <v>0.3151904253339666</v>
       </c>
       <c r="D6">
-        <v>0.01657374851601645</v>
+        <v>0.03079879414198672</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.6321578971685327</v>
+        <v>0.4617360804340294</v>
       </c>
       <c r="G6">
-        <v>0.00241327662372618</v>
+        <v>0.0007905143859978985</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.577040465183984</v>
+        <v>0.2655121100041988</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -639,16 +639,16 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.2790258276516084</v>
+        <v>0.3174648540325933</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.076600129746254</v>
+        <v>0.7058956257949234</v>
       </c>
       <c r="O6">
-        <v>2.141891097325328</v>
+        <v>1.348269891253835</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.8755626989329812</v>
+        <v>2.078611087316403</v>
       </c>
       <c r="C7">
-        <v>0.2064366168396816</v>
+        <v>0.3251869155927665</v>
       </c>
       <c r="D7">
-        <v>0.01696399586123931</v>
+        <v>0.03194054811838498</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.6337881277892663</v>
+        <v>0.4751633794581593</v>
       </c>
       <c r="G7">
-        <v>0.002412407410950554</v>
+        <v>0.0007892724711463966</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.5754618651863588</v>
+        <v>0.266428189194869</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -686,16 +686,16 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.2822061399617155</v>
+        <v>0.3311975298495895</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>1.074022604077769</v>
+        <v>0.7007451140908927</v>
       </c>
       <c r="O7">
-        <v>2.143292077278886</v>
+        <v>1.379130464542072</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.005760768505468</v>
+        <v>2.517047237421366</v>
       </c>
       <c r="C8">
-        <v>0.2211542465107641</v>
+        <v>0.3691752032875968</v>
       </c>
       <c r="D8">
-        <v>0.01867262251724355</v>
+        <v>0.03696114028058162</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.642018935821234</v>
+        <v>0.5367062856129365</v>
       </c>
       <c r="G8">
-        <v>0.002408775236865668</v>
+        <v>0.0007839815515987656</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.5693401467490133</v>
+        <v>0.2721527810824824</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -733,16 +733,16 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.2966224095376049</v>
+        <v>0.392681890499091</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>1.063618852779314</v>
+        <v>0.6800645746646055</v>
       </c>
       <c r="O8">
-        <v>2.152910743598056</v>
+        <v>1.522745877065887</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.261677102275371</v>
+        <v>3.38148418347015</v>
       </c>
       <c r="C9">
-        <v>0.249576933680288</v>
+        <v>0.455117147233409</v>
       </c>
       <c r="D9">
-        <v>0.02197369494924573</v>
+        <v>0.04675370081270813</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.661896804175683</v>
+        <v>0.6669395947156289</v>
       </c>
       <c r="G9">
-        <v>0.002402379194560689</v>
+        <v>0.0007742599718111423</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.5603785055491031</v>
+        <v>0.290140000102511</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -780,16 +780,16 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.3262659472450764</v>
+        <v>0.5171221899272354</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>1.046698293077576</v>
+        <v>0.6473979140479074</v>
       </c>
       <c r="O9">
-        <v>2.184162362785088</v>
+        <v>1.835102349377934</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.450009435968582</v>
+        <v>4.021662967820021</v>
       </c>
       <c r="C10">
-        <v>0.270184538136931</v>
+        <v>0.5182052022236689</v>
       </c>
       <c r="D10">
-        <v>0.02436799928319289</v>
+        <v>0.05392825001089108</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.6787925108250903</v>
+        <v>0.7697792608627623</v>
       </c>
       <c r="G10">
-        <v>0.002398118580093426</v>
+        <v>0.0007674890262035116</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.5556579149273801</v>
+        <v>0.3081995829328648</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -827,16 +827,16 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.3488852465508927</v>
+        <v>0.6116150093628647</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>1.03638396106129</v>
+        <v>0.6287399451195199</v>
       </c>
       <c r="O10">
-        <v>2.214719883207522</v>
+        <v>2.087398785875649</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.535743821801589</v>
+        <v>4.314540056238798</v>
       </c>
       <c r="C11">
-        <v>0.2794984459568184</v>
+        <v>0.5469289893799782</v>
       </c>
       <c r="D11">
-        <v>0.02545034514363209</v>
+        <v>0.05719076048174543</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.6869793362357655</v>
+        <v>0.8184369186124769</v>
       </c>
       <c r="G11">
-        <v>0.002396274604306952</v>
+        <v>0.0007644830155118477</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.553916884569233</v>
+        <v>0.3176393197758927</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -874,16 +874,16 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.3593585967682884</v>
+        <v>0.6554374255324404</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>1.032150497751502</v>
+        <v>0.6215392033391112</v>
       </c>
       <c r="O11">
-        <v>2.230280745571065</v>
+        <v>2.20810182856394</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.568216693877446</v>
+        <v>4.425730849926822</v>
       </c>
       <c r="C12">
-        <v>0.2830165058072964</v>
+        <v>0.5578125853347444</v>
       </c>
       <c r="D12">
-        <v>0.02585920039842904</v>
+        <v>0.05842626603027412</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>0.6901516820536955</v>
+        <v>0.8371605420352921</v>
       </c>
       <c r="G12">
-        <v>0.00239558981332966</v>
+        <v>0.0007633548159527788</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.5533161848748023</v>
+        <v>0.3214054224586391</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -921,16 +921,16 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.363351005192655</v>
+        <v>0.6721672895152864</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>1.030613271502446</v>
+        <v>0.6190090037851164</v>
       </c>
       <c r="O12">
-        <v>2.236412623391288</v>
+        <v>2.25474941122053</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.561222789553312</v>
+        <v>4.401770486559712</v>
       </c>
       <c r="C13">
-        <v>0.2822592283678489</v>
+        <v>0.5554682678328504</v>
       </c>
       <c r="D13">
-        <v>0.0257711911913816</v>
+        <v>0.05816017092713821</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0.6894652484070889</v>
+        <v>0.8331143460933532</v>
       </c>
       <c r="G13">
-        <v>0.002395736696766184</v>
+        <v>0.0007635973533791146</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.5534429480418055</v>
+        <v>0.320585551214073</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -968,16 +968,16 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.362489996085003</v>
+        <v>0.6685579490067823</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>1.030941410729625</v>
+        <v>0.6195449932217798</v>
       </c>
       <c r="O13">
-        <v>2.235081360619404</v>
+        <v>2.244659760579196</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.538415251313893</v>
+        <v>4.323681806908724</v>
       </c>
       <c r="C14">
-        <v>0.2797880586780082</v>
+        <v>0.5478242406494473</v>
       </c>
       <c r="D14">
-        <v>0.02548400219579605</v>
+        <v>0.05729240354167331</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>0.6872388797543749</v>
+        <v>0.819971179668002</v>
       </c>
       <c r="G14">
-        <v>0.002396217996183174</v>
+        <v>0.0007643899984509744</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.5538662895273205</v>
+        <v>0.3179452294614009</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1015,16 +1015,16 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.3596865261907141</v>
+        <v>0.6568110013466253</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>1.032022708861838</v>
+        <v>0.6213270340010268</v>
       </c>
       <c r="O14">
-        <v>2.230780419169889</v>
+        <v>2.211920193909464</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.524445853726945</v>
+        <v>4.275888739444383</v>
       </c>
       <c r="C15">
-        <v>0.2782732289375076</v>
+        <v>0.5431429955072531</v>
       </c>
       <c r="D15">
-        <v>0.02530795900656102</v>
+        <v>0.0567608867302809</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.685884568002578</v>
+        <v>0.8119602993713642</v>
       </c>
       <c r="G15">
-        <v>0.002396514560263885</v>
+        <v>0.000764876816454093</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.5541332331670361</v>
+        <v>0.3163533691233624</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1062,16 +1062,16 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.3579727539191282</v>
+        <v>0.6496337330710844</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>1.032693615229128</v>
+        <v>0.6224445395516085</v>
       </c>
       <c r="O15">
-        <v>2.228177152159333</v>
+        <v>2.191991365393278</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.44440757899099</v>
+        <v>4.002559976264308</v>
       </c>
       <c r="C16">
-        <v>0.2695746158011616</v>
+        <v>0.5163287796735574</v>
       </c>
       <c r="D16">
-        <v>0.02429712594998534</v>
+        <v>0.05371503264011324</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.678267574126167</v>
+        <v>0.7666394820853526</v>
       </c>
       <c r="G16">
-        <v>0.002398240978223786</v>
+        <v>0.0007676869216545832</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.5557798859905887</v>
+        <v>0.3076086039111132</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1109,16 +1109,16 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.3482044819117789</v>
+        <v>0.6087692044695387</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>1.036669851350062</v>
+        <v>0.6292373917607037</v>
       </c>
       <c r="O16">
-        <v>2.213736400727868</v>
+        <v>2.079637212575136</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.395321147362495</v>
+        <v>3.835337763420625</v>
       </c>
       <c r="C17">
-        <v>0.2642226351044599</v>
+        <v>0.4998874792551362</v>
       </c>
       <c r="D17">
-        <v>0.02367524576442293</v>
+        <v>0.05184634985216974</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.6737231879502588</v>
+        <v>0.7393364829769666</v>
       </c>
       <c r="G17">
-        <v>0.002399324161311298</v>
+        <v>0.0007694294374461088</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.5568942488813207</v>
+        <v>0.3025681850686084</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1156,16 +1156,16 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.3422589893463339</v>
+        <v>0.5839248032999791</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>1.039226560219795</v>
+        <v>0.6337421275034103</v>
       </c>
       <c r="O17">
-        <v>2.205303083311065</v>
+        <v>2.012290789070107</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.367093776680974</v>
+        <v>3.739308900356548</v>
       </c>
       <c r="C18">
-        <v>0.2611386259014239</v>
+        <v>0.4904330102881147</v>
       </c>
       <c r="D18">
-        <v>0.02331691472612363</v>
+        <v>0.05077140178801898</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.6711565141078779</v>
+        <v>0.7238072237023943</v>
       </c>
       <c r="G18">
-        <v>0.002399956049687947</v>
+        <v>0.0007704386984431812</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.5575734432018891</v>
+        <v>0.299783323892477</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1203,16 +1203,16 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.3388565940871757</v>
+        <v>0.5697128038951575</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>1.040740277668476</v>
+        <v>0.6364535222478764</v>
       </c>
       <c r="O18">
-        <v>2.200608682456817</v>
+        <v>1.974107695233414</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.357537528758996</v>
+        <v>3.70682008991929</v>
       </c>
       <c r="C19">
-        <v>0.2600934620082569</v>
+        <v>0.4872321699399151</v>
       </c>
       <c r="D19">
-        <v>0.02319548042239461</v>
+        <v>0.05040741332967258</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.6702955737748368</v>
+        <v>0.7185784585438455</v>
       </c>
       <c r="G19">
-        <v>0.002400171521870341</v>
+        <v>0.000770781637345193</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.5578099702285755</v>
+        <v>0.2988595890274084</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1250,16 +1250,16 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.3377075731344519</v>
+        <v>0.5649137989810384</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>1.041260211770712</v>
+        <v>0.6373918930126408</v>
       </c>
       <c r="O19">
-        <v>2.199046051718057</v>
+        <v>1.961271952625196</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.400545888748752</v>
+        <v>3.853122701448456</v>
       </c>
       <c r="C20">
-        <v>0.2647929530923818</v>
+        <v>0.5016374424901926</v>
       </c>
       <c r="D20">
-        <v>0.02374151258131718</v>
+        <v>0.05204528622333982</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>0.6742020660605021</v>
+        <v>0.7422246539105117</v>
       </c>
       <c r="G20">
-        <v>0.00239920793710147</v>
+        <v>0.0007692432218043196</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.556771664013219</v>
+        <v>0.3030928131678863</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1297,16 +1297,16 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.342890107523445</v>
+        <v>0.58656137144132</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>1.038949927028483</v>
+        <v>0.63325004991502</v>
       </c>
       <c r="O20">
-        <v>2.206184651792341</v>
+        <v>2.019402110129903</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.545114198112401</v>
+        <v>4.346610232768967</v>
       </c>
       <c r="C21">
-        <v>0.2805141446676771</v>
+        <v>0.550069274660359</v>
       </c>
       <c r="D21">
-        <v>0.02556838403985751</v>
+        <v>0.05754728411365306</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>0.6878908582906575</v>
+        <v>0.823823321588165</v>
       </c>
       <c r="G21">
-        <v>0.002396076261421883</v>
+        <v>0.0007641569095353193</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.5537403525233699</v>
+        <v>0.318715430809668</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1344,16 +1344,16 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.3605092576890172</v>
+        <v>0.6602575693778903</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>1.031703317396797</v>
+        <v>0.6207981749166152</v>
       </c>
       <c r="O21">
-        <v>2.232037210188935</v>
+        <v>2.22151036283114</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.639638683284431</v>
+        <v>4.670815996212241</v>
       </c>
       <c r="C22">
-        <v>0.2907367961933289</v>
+        <v>0.5817618766488124</v>
       </c>
       <c r="D22">
-        <v>0.02675647802089287</v>
+        <v>0.06114365531994537</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>0.6972580199746403</v>
+        <v>0.8789045823529591</v>
       </c>
       <c r="G22">
-        <v>0.002394108088276028</v>
+        <v>0.0007608913657433276</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.552100797226295</v>
+        <v>0.3300497820348198</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1391,16 +1391,16 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.3721781229082097</v>
+        <v>0.7092184563004622</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>1.027351303053564</v>
+        <v>0.6138118214978547</v>
       </c>
       <c r="O22">
-        <v>2.250328549098612</v>
+        <v>2.359123733410144</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.589186006659872</v>
+        <v>4.497610948452348</v>
       </c>
       <c r="C23">
-        <v>0.2852856042293581</v>
+        <v>0.5648422579991461</v>
       </c>
       <c r="D23">
-        <v>0.02612291470812522</v>
+        <v>0.05922407396833052</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>0.6922200433878203</v>
+        <v>0.8493364622293029</v>
       </c>
       <c r="G23">
-        <v>0.002395151372122454</v>
+        <v>0.0007626290718824303</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.5529445537247142</v>
+        <v>0.3238921809438153</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1438,16 +1438,16 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.3659361769092442</v>
+        <v>0.6830090469978956</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>1.029638927953556</v>
+        <v>0.6174311736992308</v>
       </c>
       <c r="O23">
-        <v>2.240438259969949</v>
+        <v>2.285140994379219</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.39818380461935</v>
+        <v>3.84508179362507</v>
       </c>
       <c r="C24">
-        <v>0.2645351343822426</v>
+        <v>0.5008462910178082</v>
       </c>
       <c r="D24">
-        <v>0.02371155585541374</v>
+        <v>0.05195534903108978</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>0.673985422132958</v>
+        <v>0.7409183919176598</v>
       </c>
       <c r="G24">
-        <v>0.002399260453750511</v>
+        <v>0.0007693273865874673</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.5568269646166897</v>
+        <v>0.3028552781655023</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1485,16 +1485,16 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.3426047299428632</v>
+        <v>0.5853691577708986</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>1.039074856355732</v>
+        <v>0.6334721404152219</v>
       </c>
       <c r="O24">
-        <v>2.205785614943153</v>
+        <v>2.016185421151931</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.192386510976576</v>
+        <v>3.146910898088663</v>
       </c>
       <c r="C25">
-        <v>0.2419355385580673</v>
+        <v>0.4318879090142786</v>
       </c>
       <c r="D25">
-        <v>0.02108605302841937</v>
+        <v>0.04410900872173329</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>0.6561178550236164</v>
+        <v>0.6305531843114736</v>
       </c>
       <c r="G25">
-        <v>0.002404032160699262</v>
+        <v>0.0007768226203903973</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.5624762192392794</v>
+        <v>0.2844783730420382</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1532,16 +1532,16 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.3180992538901535</v>
+        <v>0.4829733265840161</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>1.050903606898459</v>
+        <v>0.6553377441732167</v>
       </c>
       <c r="O25">
-        <v>2.174377037831647</v>
+        <v>1.746907708551646</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_20/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_20/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.636079898379819</v>
+        <v>1.012254943150907</v>
       </c>
       <c r="C2">
-        <v>0.3810674346067344</v>
+        <v>0.2078481124931955</v>
       </c>
       <c r="D2">
-        <v>0.03831747717642742</v>
+        <v>0.4606186053556485</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.5539808904376713</v>
+        <v>0.6631738945657304</v>
       </c>
       <c r="G2">
-        <v>0.0007825931835090786</v>
+        <v>0.2869009613011784</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>8.812302855920606E-05</v>
       </c>
       <c r="I2">
-        <v>0.2741362202547819</v>
+        <v>0.00070840228508251</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.2814656852779009</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.2492320585433365</v>
       </c>
       <c r="L2">
-        <v>0.4095783167475986</v>
+        <v>0.4859127160930257</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>1.148986075693784</v>
       </c>
       <c r="N2">
-        <v>0.6749764248418799</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>1.563595963824497</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>1.145095393783436</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.291154003306303</v>
+        <v>0.8835701964135296</v>
       </c>
       <c r="C3">
-        <v>0.3465494208538047</v>
+        <v>0.1855225391057189</v>
       </c>
       <c r="D3">
-        <v>0.03437946918339918</v>
+        <v>0.4064420502626831</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.5045702134741106</v>
+        <v>0.635287894581289</v>
       </c>
       <c r="G3">
-        <v>0.000786670085868995</v>
+        <v>0.283468167134437</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.0005174450261526964</v>
       </c>
       <c r="I3">
-        <v>0.2688779681418225</v>
+        <v>0.001128603123348171</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.2840947320192839</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.2560122540085796</v>
       </c>
       <c r="L3">
-        <v>0.3608500127706549</v>
+        <v>0.4300162262736507</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>1.006381050399796</v>
       </c>
       <c r="N3">
-        <v>0.690317786712761</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>1.447346666865627</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>1.143054638588438</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.079772080885675</v>
+        <v>0.8042427314850329</v>
       </c>
       <c r="C4">
-        <v>0.3253038132230159</v>
+        <v>0.1719728312216375</v>
       </c>
       <c r="D4">
-        <v>0.03195389784650615</v>
+        <v>0.3732627297202242</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.4753216901873429</v>
+        <v>0.6185707839443353</v>
       </c>
       <c r="G4">
-        <v>0.0007892580440426369</v>
+        <v>0.2816926450548394</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.0009778063693055561</v>
       </c>
       <c r="I4">
-        <v>0.2664397969087098</v>
+        <v>0.001534611899687732</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.2859414458244345</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.2604129496725243</v>
       </c>
       <c r="L4">
-        <v>0.3313586723622848</v>
+        <v>0.3956642037087192</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.9187912926115018</v>
       </c>
       <c r="N4">
-        <v>0.7006859437890895</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>1.379495459948032</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>1.142985924724627</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.993704387061541</v>
+        <v>0.7714899984240731</v>
       </c>
       <c r="C5">
-        <v>0.3166314048145864</v>
+        <v>0.1669496269987292</v>
       </c>
       <c r="D5">
-        <v>0.03096339505356838</v>
+        <v>0.3599408647113336</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.4636579493393498</v>
+        <v>0.6113884501415541</v>
       </c>
       <c r="G5">
-        <v>0.0007903343460621659</v>
+        <v>0.2807223687332865</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.001213364787062687</v>
       </c>
       <c r="I5">
-        <v>0.2656347026314769</v>
+        <v>0.001807003178707411</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.2865771554007566</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.2620251599481627</v>
       </c>
       <c r="L5">
-        <v>0.3194385490478027</v>
+        <v>0.3816462308719224</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.8834959799566775</v>
       </c>
       <c r="N5">
-        <v>0.7051419726929495</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>1.352674944861263</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>1.142188288392958</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.979416444034968</v>
+        <v>0.7656241510893267</v>
       </c>
       <c r="C6">
-        <v>0.3151904253339666</v>
+        <v>0.1666843351442395</v>
       </c>
       <c r="D6">
-        <v>0.03079879414198672</v>
+        <v>0.3579513884869101</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.4617360804340294</v>
+        <v>0.6096308757627185</v>
       </c>
       <c r="G6">
-        <v>0.0007905143859978985</v>
+        <v>0.2801669741408972</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.001256088879434847</v>
       </c>
       <c r="I6">
-        <v>0.2655121100041988</v>
+        <v>0.001948964449000279</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.286473811601418</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.2620046636468452</v>
       </c>
       <c r="L6">
-        <v>0.3174648540325933</v>
+        <v>0.3793084022251207</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.8781381526786447</v>
       </c>
       <c r="N6">
-        <v>0.7058956257949234</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>1.348269891253835</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>1.140782214988064</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.078611087316403</v>
+        <v>0.8026442145524584</v>
       </c>
       <c r="C7">
-        <v>0.3251869155927665</v>
+        <v>0.1734556810906724</v>
       </c>
       <c r="D7">
-        <v>0.03194054811838498</v>
+        <v>0.3736893173601601</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.4751633794581593</v>
+        <v>0.6169161494623481</v>
       </c>
       <c r="G7">
-        <v>0.0007892724711463966</v>
+        <v>0.2805908469680745</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.0009826905383016893</v>
       </c>
       <c r="I7">
-        <v>0.266428189194869</v>
+        <v>0.001781277786549573</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.2853717140297434</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>0.2596403063617849</v>
       </c>
       <c r="L7">
-        <v>0.3311975298495895</v>
+        <v>0.3954498755132221</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.9196958607554393</v>
       </c>
       <c r="N7">
-        <v>0.7007451140908927</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>1.379130464542072</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>1.139455628566992</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.517047237421366</v>
+        <v>0.9664023468487528</v>
       </c>
       <c r="C8">
-        <v>0.3691752032875968</v>
+        <v>0.2021879115027616</v>
       </c>
       <c r="D8">
-        <v>0.03696114028058162</v>
+        <v>0.4427259714071283</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.5367062856129365</v>
+        <v>0.6514172001091438</v>
       </c>
       <c r="G8">
-        <v>0.0007839815515987656</v>
+        <v>0.2842142454062966</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.0001950372406720469</v>
       </c>
       <c r="I8">
-        <v>0.2721527810824824</v>
+        <v>0.001113937485401451</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.2815664892481919</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>0.2504831588726599</v>
       </c>
       <c r="L8">
-        <v>0.392681890499091</v>
+        <v>0.4666112061911178</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>1.101664231815533</v>
       </c>
       <c r="N8">
-        <v>0.6800645746646055</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>1.522745877065887</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>1.139519032693457</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.38148418347015</v>
+        <v>1.287251363659209</v>
       </c>
       <c r="C9">
-        <v>0.455117147233409</v>
+        <v>0.2571169205594401</v>
       </c>
       <c r="D9">
-        <v>0.04675370081270813</v>
+        <v>0.5778556564077064</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.6669395947156289</v>
+        <v>0.7253114398916409</v>
       </c>
       <c r="G9">
-        <v>0.0007742599718111423</v>
+        <v>0.2960650325595822</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>0.0003125641382111244</v>
       </c>
       <c r="I9">
-        <v>0.290140000102511</v>
+        <v>0.0006899982720955933</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.2770420852358271</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>0.2358859039046024</v>
       </c>
       <c r="L9">
-        <v>0.5171221899272354</v>
+        <v>0.6061322240456377</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>1.456051627733558</v>
       </c>
       <c r="N9">
-        <v>0.6473979140479074</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>1.835102349377934</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>1.155801946753215</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.021662967820021</v>
+        <v>1.521571641999628</v>
       </c>
       <c r="C10">
-        <v>0.5182052022236689</v>
+        <v>0.2982041725913405</v>
       </c>
       <c r="D10">
-        <v>0.05392825001089108</v>
+        <v>0.6612736099305323</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.7697792608627623</v>
+        <v>0.7678023947293298</v>
       </c>
       <c r="G10">
-        <v>0.0007674890262035116</v>
+        <v>0.3016210860189688</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.00161584695966388</v>
       </c>
       <c r="I10">
-        <v>0.3081995829328648</v>
+        <v>0.001365616221417731</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.2724122955362276</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>0.2240513612137782</v>
       </c>
       <c r="L10">
-        <v>0.6116150093628647</v>
+        <v>0.6761702774609546</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>1.716390280893449</v>
       </c>
       <c r="N10">
-        <v>0.6287399451195199</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>2.087398785875649</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>1.158314365252224</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.314540056238798</v>
+        <v>1.629900118040354</v>
       </c>
       <c r="C11">
-        <v>0.5469289893799782</v>
+        <v>0.3100343252372397</v>
       </c>
       <c r="D11">
-        <v>0.05719076048174543</v>
+        <v>0.559549863615814</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.8184369186124769</v>
+        <v>0.6723704799800103</v>
       </c>
       <c r="G11">
-        <v>0.0007644830155118477</v>
+        <v>0.2645797304845274</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.01992629420496428</v>
       </c>
       <c r="I11">
-        <v>0.3176393197758927</v>
+        <v>0.00211983821134254</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.250365050266474</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>0.2012140780626979</v>
       </c>
       <c r="L11">
-        <v>0.6554374255324404</v>
+        <v>0.4544449301085933</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>1.826782765024916</v>
       </c>
       <c r="N11">
-        <v>0.6215392033391112</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>2.20810182856394</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>1.033767134625322</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.425730849926822</v>
+        <v>1.674069846974106</v>
       </c>
       <c r="C12">
-        <v>0.5578125853347444</v>
+        <v>0.3086612743005617</v>
       </c>
       <c r="D12">
-        <v>0.05842626603027412</v>
+        <v>0.4633437303733956</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>0.8371605420352921</v>
+        <v>0.5903688978116506</v>
       </c>
       <c r="G12">
-        <v>0.0007633548159527788</v>
+        <v>0.2353316165931929</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.05830446017918689</v>
       </c>
       <c r="I12">
-        <v>0.3214054224586391</v>
+        <v>0.002168023010167275</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.2341825356757496</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>0.1867349557780607</v>
       </c>
       <c r="L12">
-        <v>0.6721672895152864</v>
+        <v>0.2930953740664961</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>1.862519044652799</v>
       </c>
       <c r="N12">
-        <v>0.6190090037851164</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>2.25474941122053</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0.9379148234157668</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.401770486559712</v>
+        <v>1.669173067233288</v>
       </c>
       <c r="C13">
-        <v>0.5554682678328504</v>
+        <v>0.2995390827436495</v>
       </c>
       <c r="D13">
-        <v>0.05816017092713821</v>
+        <v>0.367301081201731</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0.8331143460933532</v>
+        <v>0.5116325426213919</v>
       </c>
       <c r="G13">
-        <v>0.0007635973533791146</v>
+        <v>0.2085988821733622</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.1137131111989049</v>
       </c>
       <c r="I13">
-        <v>0.320585551214073</v>
+        <v>0.002009414652572872</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.2205964478186857</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>0.1764856926227374</v>
       </c>
       <c r="L13">
-        <v>0.6685579490067823</v>
+        <v>0.16915835479967</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>1.844739631985277</v>
       </c>
       <c r="N13">
-        <v>0.6195449932217798</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>2.244659760579196</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0.8527509897381691</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.323681806908724</v>
+        <v>1.643139700142257</v>
       </c>
       <c r="C14">
-        <v>0.5478242406494473</v>
+        <v>0.2901726247564653</v>
       </c>
       <c r="D14">
-        <v>0.05729240354167331</v>
+        <v>0.3019918474952874</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>0.819971179668002</v>
+        <v>0.4587816447136035</v>
       </c>
       <c r="G14">
-        <v>0.0007643899984509744</v>
+        <v>0.1911293372631775</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>0.1628299535176012</v>
       </c>
       <c r="I14">
-        <v>0.3179452294614009</v>
+        <v>0.001896243021073829</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.2122685582782395</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>0.1712445143136172</v>
       </c>
       <c r="L14">
-        <v>0.6568110013466253</v>
+        <v>0.1052787932745929</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>1.808529099883287</v>
       </c>
       <c r="N14">
-        <v>0.6213270340010268</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>2.211920193909464</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0.7982109395792776</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.275888739444383</v>
+        <v>1.625783124820884</v>
       </c>
       <c r="C15">
-        <v>0.5431429955072531</v>
+        <v>0.2868948578709904</v>
       </c>
       <c r="D15">
-        <v>0.0567608867302809</v>
+        <v>0.2853721020049704</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.8119602993713642</v>
+        <v>0.4456240086703787</v>
       </c>
       <c r="G15">
-        <v>0.000764876816454093</v>
+        <v>0.1869405227051075</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.1752547078231004</v>
       </c>
       <c r="I15">
-        <v>0.3163533691233624</v>
+        <v>0.001941291374421006</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.2105657782045895</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>0.1705484509106263</v>
       </c>
       <c r="L15">
-        <v>0.6496337330710844</v>
+        <v>0.09256858736675255</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>1.788912628408923</v>
       </c>
       <c r="N15">
-        <v>0.6224445395516085</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>2.191991365393278</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0.785730595093554</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.002559976264308</v>
+        <v>1.524851457587744</v>
       </c>
       <c r="C16">
-        <v>0.5163287796735574</v>
+        <v>0.2721362482625267</v>
       </c>
       <c r="D16">
-        <v>0.05371503264011324</v>
+        <v>0.2720957839110554</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.7666394820853526</v>
+        <v>0.4436222337232678</v>
       </c>
       <c r="G16">
-        <v>0.0007676869216545832</v>
+        <v>0.1893245593072805</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.1621577109938954</v>
       </c>
       <c r="I16">
-        <v>0.3076086039111132</v>
+        <v>0.001766297210978429</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.214810194009992</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>0.1769212779192788</v>
       </c>
       <c r="L16">
-        <v>0.6087692044695387</v>
+        <v>0.09153698888104245</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>1.681235026019237</v>
       </c>
       <c r="N16">
-        <v>0.6292373917607037</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>2.079637212575136</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0.7994968300568246</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.835337763420625</v>
+        <v>1.461394258561029</v>
       </c>
       <c r="C17">
-        <v>0.4998874792551362</v>
+        <v>0.2658678504431293</v>
       </c>
       <c r="D17">
-        <v>0.05184634985216974</v>
+        <v>0.2954307600828088</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.7393364829769666</v>
+        <v>0.4694947112986014</v>
       </c>
       <c r="G17">
-        <v>0.0007694294374461088</v>
+        <v>0.2002911398004343</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.1242131314064352</v>
       </c>
       <c r="I17">
-        <v>0.3025681850686084</v>
+        <v>0.001728433749689451</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.222467295723618</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>0.1845491198902103</v>
       </c>
       <c r="L17">
-        <v>0.5839248032999791</v>
+        <v>0.1204234516309484</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>1.618113143240805</v>
       </c>
       <c r="N17">
-        <v>0.6337421275034103</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>2.012290789070107</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0.8386801824332935</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.739308900356548</v>
+        <v>1.423962597410991</v>
       </c>
       <c r="C18">
-        <v>0.4904330102881147</v>
+        <v>0.2648105107338665</v>
       </c>
       <c r="D18">
-        <v>0.05077140178801898</v>
+        <v>0.3569767131173762</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.7238072237023943</v>
+        <v>0.52606713480548</v>
       </c>
       <c r="G18">
-        <v>0.0007704386984431812</v>
+        <v>0.2213875001052372</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.07137462260114091</v>
       </c>
       <c r="I18">
-        <v>0.299783323892477</v>
+        <v>0.001487049734743451</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.2346169371641764</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>0.1951091492910351</v>
       </c>
       <c r="L18">
-        <v>0.5697128038951575</v>
+        <v>0.1984563342689611</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>1.584703023514919</v>
       </c>
       <c r="N18">
-        <v>0.6364535222478764</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>1.974107695233414</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0.9088038596395762</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.70682008991929</v>
+        <v>1.40792755728981</v>
       </c>
       <c r="C19">
-        <v>0.4872321699399151</v>
+        <v>0.2710616783816704</v>
       </c>
       <c r="D19">
-        <v>0.05040741332967258</v>
+        <v>0.4528760274539252</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.7185784585438455</v>
+        <v>0.6057045843398825</v>
       </c>
       <c r="G19">
-        <v>0.000770781637345193</v>
+        <v>0.2489938344727634</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.02631243607074651</v>
       </c>
       <c r="I19">
-        <v>0.2988595890274084</v>
+        <v>0.001621741906992824</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.2492549973430158</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>0.2072153315801177</v>
       </c>
       <c r="L19">
-        <v>0.5649137989810384</v>
+        <v>0.3410320538746276</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>1.580275274655833</v>
       </c>
       <c r="N19">
-        <v>0.6373918930126408</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>1.961271952625196</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0.9979909889116527</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.853122701448456</v>
+        <v>1.45642524584116</v>
       </c>
       <c r="C20">
-        <v>0.5016374424901926</v>
+        <v>0.2923153817398401</v>
       </c>
       <c r="D20">
-        <v>0.05204528622333982</v>
+        <v>0.6405381304583386</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>0.7422246539105117</v>
+        <v>0.7511404818707419</v>
       </c>
       <c r="G20">
-        <v>0.0007692432218043196</v>
+        <v>0.2965300751414688</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>0.001170779173714109</v>
       </c>
       <c r="I20">
-        <v>0.3030928131678863</v>
+        <v>0.001882140158432577</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.2717136516576986</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>0.2246496296026379</v>
       </c>
       <c r="L20">
-        <v>0.58656137144132</v>
+        <v>0.6563309781717663</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>1.652388180630965</v>
       </c>
       <c r="N20">
-        <v>0.63325004991502</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>2.019402110129903</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>1.145947716591422</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.346610232768967</v>
+        <v>1.635997170042344</v>
       </c>
       <c r="C21">
-        <v>0.550069274660359</v>
+        <v>0.3249123054126812</v>
       </c>
       <c r="D21">
-        <v>0.05754728411365306</v>
+        <v>0.7306184320327134</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>0.823823321588165</v>
+        <v>0.8065459405599853</v>
       </c>
       <c r="G21">
-        <v>0.0007641569095353193</v>
+        <v>0.3093163108886614</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>0.002505277319112986</v>
       </c>
       <c r="I21">
-        <v>0.318715430809668</v>
+        <v>0.002568527897299333</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>0.2725484604803157</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>0.2197049812158411</v>
       </c>
       <c r="L21">
-        <v>0.6602575693778903</v>
+        <v>0.7607574369886834</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>1.85335088723545</v>
       </c>
       <c r="N21">
-        <v>0.6207981749166152</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>2.22151036283114</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>1.175129899367462</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.670815996212241</v>
+        <v>1.754970142764819</v>
       </c>
       <c r="C22">
-        <v>0.5817618766488124</v>
+        <v>0.3438022571953638</v>
       </c>
       <c r="D22">
-        <v>0.06114365531994537</v>
+        <v>0.7802886920978551</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>0.8789045823529591</v>
+        <v>0.8384551398810913</v>
       </c>
       <c r="G22">
-        <v>0.0007608913657433276</v>
+        <v>0.3171545267937077</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>0.003658162480843496</v>
       </c>
       <c r="I22">
-        <v>0.3300497820348198</v>
+        <v>0.002905815357811647</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>0.2729027823181056</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>0.216674271799473</v>
       </c>
       <c r="L22">
-        <v>0.7092184563004622</v>
+        <v>0.8125294602993449</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>1.982458725006325</v>
       </c>
       <c r="N22">
-        <v>0.6138118214978547</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>2.359123733410144</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>1.192694313855426</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.497610948452348</v>
+        <v>1.692896419574481</v>
       </c>
       <c r="C23">
-        <v>0.5648422579991461</v>
+        <v>0.3317825191469979</v>
       </c>
       <c r="D23">
-        <v>0.05922407396833052</v>
+        <v>0.7530254191618155</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>0.8493364622293029</v>
+        <v>0.8231790209976992</v>
       </c>
       <c r="G23">
-        <v>0.0007626290718824303</v>
+        <v>0.3141755499471941</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>0.003021149914617882</v>
       </c>
       <c r="I23">
-        <v>0.3238921809438153</v>
+        <v>0.002418466964986266</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>0.2733385281689706</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>0.2191419483949986</v>
       </c>
       <c r="L23">
-        <v>0.6830090469978956</v>
+        <v>0.7849120022972613</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>1.911837714201909</v>
       </c>
       <c r="N23">
-        <v>0.6174311736992308</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>2.285140994379219</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>1.187182082574608</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.84508179362507</v>
+        <v>1.455312019612478</v>
       </c>
       <c r="C24">
-        <v>0.5008462910178082</v>
+        <v>0.2897416820581213</v>
       </c>
       <c r="D24">
-        <v>0.05195534903108978</v>
+        <v>0.6513467826795818</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>0.7409183919176598</v>
+        <v>0.7636911301686666</v>
       </c>
       <c r="G24">
-        <v>0.0007693273865874673</v>
+        <v>0.3018702339922044</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>0.001124587768841723</v>
       </c>
       <c r="I24">
-        <v>0.3028552781655023</v>
+        <v>0.001408951234774136</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>0.2745301903496227</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>0.2276990307338664</v>
       </c>
       <c r="L24">
-        <v>0.5853691577708986</v>
+        <v>0.6805335531404353</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>1.647472946387637</v>
       </c>
       <c r="N24">
-        <v>0.6334721404152219</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>2.016185421151931</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>1.163165478256687</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.146910898088663</v>
+        <v>1.198552127185309</v>
       </c>
       <c r="C25">
-        <v>0.4318879090142786</v>
+        <v>0.244964849415652</v>
       </c>
       <c r="D25">
-        <v>0.04410900872173329</v>
+        <v>0.5422961572361373</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>0.6305531843114736</v>
+        <v>0.7021204185486027</v>
       </c>
       <c r="G25">
-        <v>0.0007768226203903973</v>
+        <v>0.2905947325001037</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>8.709404929896358E-05</v>
       </c>
       <c r="I25">
-        <v>0.2844783730420382</v>
+        <v>0.001075313171853054</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.2770321934280844</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>0.2382286460853962</v>
       </c>
       <c r="L25">
-        <v>0.4829733265840161</v>
+        <v>0.5683254892537235</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>1.362683770425008</v>
       </c>
       <c r="N25">
-        <v>0.6553377441732167</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>1.746907708551646</v>
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>1.144018235503381</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_20/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_20/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.012254943150907</v>
+        <v>1.00642811747548</v>
       </c>
       <c r="C2">
-        <v>0.2078481124931955</v>
+        <v>0.21451388701486</v>
       </c>
       <c r="D2">
-        <v>0.4606186053556485</v>
+        <v>0.4682596791605249</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.6631738945657304</v>
+        <v>0.6430186816264651</v>
       </c>
       <c r="G2">
-        <v>0.2869009613011784</v>
+        <v>0.2553720333008656</v>
       </c>
       <c r="H2">
-        <v>8.812302855920606E-05</v>
+        <v>5.914521204752887E-05</v>
       </c>
       <c r="I2">
-        <v>0.00070840228508251</v>
+        <v>0.0006150258779165085</v>
       </c>
       <c r="J2">
-        <v>0.2814656852779009</v>
+        <v>0.3014118211674486</v>
       </c>
       <c r="K2">
-        <v>0.2492320585433365</v>
+        <v>0.2314442708310072</v>
       </c>
       <c r="L2">
-        <v>0.4859127160930257</v>
+        <v>0.1260114093914488</v>
       </c>
       <c r="M2">
-        <v>1.148986075693784</v>
+        <v>0.05592340758928671</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.4874173794053149</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>1.16363710403823</v>
       </c>
       <c r="P2">
         <v>0</v>
       </c>
       <c r="Q2">
-        <v>1.145095393783436</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>1.092250531835091</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.8835701964135296</v>
+        <v>0.8812600939468211</v>
       </c>
       <c r="C3">
-        <v>0.1855225391057189</v>
+        <v>0.1873685666173373</v>
       </c>
       <c r="D3">
-        <v>0.4064420502626831</v>
+        <v>0.4126629570879743</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.635287894581289</v>
+        <v>0.6181401857603035</v>
       </c>
       <c r="G3">
-        <v>0.283468167134437</v>
+        <v>0.254464945360624</v>
       </c>
       <c r="H3">
-        <v>0.0005174450261526964</v>
+        <v>0.0004268479164937222</v>
       </c>
       <c r="I3">
-        <v>0.001128603123348171</v>
+        <v>0.0008329917733207459</v>
       </c>
       <c r="J3">
-        <v>0.2840947320192839</v>
+        <v>0.3025998778031749</v>
       </c>
       <c r="K3">
-        <v>0.2560122540085796</v>
+        <v>0.2386933788291294</v>
       </c>
       <c r="L3">
-        <v>0.4300162262736507</v>
+        <v>0.1313171322147468</v>
       </c>
       <c r="M3">
-        <v>1.006381050399796</v>
+        <v>0.05748197625090246</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>0.4318086068436742</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>1.017311050708628</v>
       </c>
       <c r="P3">
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>1.143054638588438</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>1.095214738501113</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.8042427314850329</v>
+        <v>0.8040065376933399</v>
       </c>
       <c r="C4">
-        <v>0.1719728312216375</v>
+        <v>0.1709748205324928</v>
       </c>
       <c r="D4">
-        <v>0.3732627297202242</v>
+        <v>0.3786457220787725</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.6185707839443353</v>
+        <v>0.6031673170790128</v>
       </c>
       <c r="G4">
-        <v>0.2816926450548394</v>
+        <v>0.254244296288654</v>
       </c>
       <c r="H4">
-        <v>0.0009778063693055561</v>
+        <v>0.0008373102286500789</v>
       </c>
       <c r="I4">
-        <v>0.001534611899687732</v>
+        <v>0.001092828492886166</v>
       </c>
       <c r="J4">
-        <v>0.2859414458244345</v>
+        <v>0.3034182435488901</v>
       </c>
       <c r="K4">
-        <v>0.2604129496725243</v>
+        <v>0.2433256087852627</v>
       </c>
       <c r="L4">
-        <v>0.3956642037087192</v>
+        <v>0.1347709069395471</v>
       </c>
       <c r="M4">
-        <v>0.9187912926115018</v>
+        <v>0.0588842023783398</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>0.397627365246592</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>0.9274951197020869</v>
       </c>
       <c r="P4">
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>1.142985924724627</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>1.097964322002653</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.7714899984240731</v>
+        <v>0.7720841390338649</v>
       </c>
       <c r="C5">
-        <v>0.1669496269987292</v>
+        <v>0.1648310535912429</v>
       </c>
       <c r="D5">
-        <v>0.3599408647113336</v>
+        <v>0.3649889744662858</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.6113884501415541</v>
+        <v>0.5966834914025299</v>
       </c>
       <c r="G5">
-        <v>0.2807223687332865</v>
+        <v>0.2539252144360304</v>
       </c>
       <c r="H5">
-        <v>0.001213364787062687</v>
+        <v>0.001049585571932132</v>
       </c>
       <c r="I5">
-        <v>0.001807003178707411</v>
+        <v>0.00131250844257913</v>
       </c>
       <c r="J5">
-        <v>0.2865771554007566</v>
+        <v>0.3035988386919328</v>
       </c>
       <c r="K5">
-        <v>0.2620251599481627</v>
+        <v>0.245033643928247</v>
       </c>
       <c r="L5">
-        <v>0.3816462308719224</v>
+        <v>0.1360967076011992</v>
       </c>
       <c r="M5">
-        <v>0.8834959799566775</v>
+        <v>0.05952813977115357</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>0.383677937222842</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>0.8913036658735791</v>
       </c>
       <c r="P5">
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>1.142188288392958</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>1.098292071535511</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.7656241510893267</v>
+        <v>0.7663622587228645</v>
       </c>
       <c r="C6">
-        <v>0.1666843351442395</v>
+        <v>0.1643936394246168</v>
       </c>
       <c r="D6">
-        <v>0.3579513884869101</v>
+        <v>0.3629418163239251</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.6096308757627185</v>
+        <v>0.5950563655625061</v>
       </c>
       <c r="G6">
-        <v>0.2801669741408972</v>
+        <v>0.2534990503675871</v>
       </c>
       <c r="H6">
-        <v>0.001256088879434847</v>
+        <v>0.001088193627921896</v>
       </c>
       <c r="I6">
-        <v>0.001948964449000279</v>
+        <v>0.001461734955853444</v>
       </c>
       <c r="J6">
-        <v>0.286473811601418</v>
+        <v>0.3034167833108725</v>
       </c>
       <c r="K6">
-        <v>0.2620046636468452</v>
+        <v>0.2450472749137447</v>
       </c>
       <c r="L6">
-        <v>0.3793084022251207</v>
+        <v>0.1361609742910179</v>
       </c>
       <c r="M6">
-        <v>0.8781381526786447</v>
+        <v>0.05959394920749572</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>0.3813516187526176</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>0.8857925323152926</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>1.140782214988064</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>1.097118127814923</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.8026442145524584</v>
+        <v>0.8025573213492976</v>
       </c>
       <c r="C7">
-        <v>0.1734556810906724</v>
+        <v>0.1722668708207351</v>
       </c>
       <c r="D7">
-        <v>0.3736893173601601</v>
+        <v>0.3794158450584462</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.6169161494623481</v>
+        <v>0.6006799627156028</v>
       </c>
       <c r="G7">
-        <v>0.2805908469680745</v>
+        <v>0.2551021975932599</v>
       </c>
       <c r="H7">
-        <v>0.0009826905383016893</v>
+        <v>0.0008431453536692501</v>
       </c>
       <c r="I7">
-        <v>0.001781277786549573</v>
+        <v>0.001382696790349414</v>
       </c>
       <c r="J7">
-        <v>0.2853717140297434</v>
+        <v>0.2998596389253336</v>
       </c>
       <c r="K7">
-        <v>0.2596403063617849</v>
+        <v>0.2423418221607658</v>
       </c>
       <c r="L7">
-        <v>0.3954498755132221</v>
+        <v>0.1342205962000378</v>
       </c>
       <c r="M7">
-        <v>0.9196958607554393</v>
+        <v>0.05869703918747682</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>0.3973933844829816</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>0.9281654257812022</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>1.139455628566992</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>1.092642873005232</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.9664023468487528</v>
+        <v>0.9622310414540607</v>
       </c>
       <c r="C8">
-        <v>0.2021879115027616</v>
+        <v>0.2065175014628977</v>
       </c>
       <c r="D8">
-        <v>0.4427259714071283</v>
+        <v>0.4510542499178882</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.6514172001091438</v>
+        <v>0.6294544244630131</v>
       </c>
       <c r="G8">
-        <v>0.2842142454062966</v>
+        <v>0.259976586872952</v>
       </c>
       <c r="H8">
-        <v>0.0001950372406720469</v>
+        <v>0.0001491076741344521</v>
       </c>
       <c r="I8">
-        <v>0.001113937485401451</v>
+        <v>0.001011450536697822</v>
       </c>
       <c r="J8">
-        <v>0.2815664892481919</v>
+        <v>0.2914438681343086</v>
       </c>
       <c r="K8">
-        <v>0.2504831588726599</v>
+        <v>0.2320985590463973</v>
       </c>
       <c r="L8">
-        <v>0.4666112061911178</v>
+        <v>0.1268936425804874</v>
       </c>
       <c r="M8">
-        <v>1.101664231815533</v>
+        <v>0.05590383908890395</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>0.4681498270677338</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>1.114308715154095</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>1.139519032693457</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>1.082288011038614</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.287251363659209</v>
+        <v>1.273888018848368</v>
       </c>
       <c r="C9">
-        <v>0.2571169205594401</v>
+        <v>0.2738723368406255</v>
       </c>
       <c r="D9">
-        <v>0.5778556564077064</v>
+        <v>0.5902681369692289</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.7253114398916409</v>
+        <v>0.6944091059422064</v>
       </c>
       <c r="G9">
-        <v>0.2960650325595822</v>
+        <v>0.2672530576731802</v>
       </c>
       <c r="H9">
-        <v>0.0003125641382111244</v>
+        <v>0.000341620946953114</v>
       </c>
       <c r="I9">
-        <v>0.0006899982720955933</v>
+        <v>0.0009037600633607923</v>
       </c>
       <c r="J9">
-        <v>0.2770420852358271</v>
+        <v>0.2871219626073866</v>
       </c>
       <c r="K9">
-        <v>0.2358859039046024</v>
+        <v>0.2157572516140824</v>
       </c>
       <c r="L9">
-        <v>0.6061322240456377</v>
+        <v>0.115260753394784</v>
       </c>
       <c r="M9">
-        <v>1.456051627733558</v>
+        <v>0.05451612970873398</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>0.6068916058782747</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>1.478084749772023</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>1.155801946753215</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>1.082808709028711</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.521571641999628</v>
+        <v>1.502069456962317</v>
       </c>
       <c r="C10">
-        <v>0.2982041725913405</v>
+        <v>0.3228177235511964</v>
       </c>
       <c r="D10">
-        <v>0.6612736099305323</v>
+        <v>0.6785867962868508</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.7678023947293298</v>
+        <v>0.725631435665008</v>
       </c>
       <c r="G10">
-        <v>0.3016210860189688</v>
+        <v>0.2814361914073515</v>
       </c>
       <c r="H10">
-        <v>0.00161584695966388</v>
+        <v>0.001618603478765301</v>
       </c>
       <c r="I10">
-        <v>0.001365616221417731</v>
+        <v>0.001692179233925728</v>
       </c>
       <c r="J10">
-        <v>0.2724122955362276</v>
+        <v>0.2670040081368157</v>
       </c>
       <c r="K10">
-        <v>0.2240513612137782</v>
+        <v>0.2014857760405437</v>
       </c>
       <c r="L10">
-        <v>0.6761702774609546</v>
+        <v>0.1065462768438916</v>
       </c>
       <c r="M10">
-        <v>1.716390280893449</v>
+        <v>0.05434429217488379</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>0.6762059503115978</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>1.743826063746127</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>1.158314365252224</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>1.063545621351125</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.629900118040354</v>
+        <v>1.612139363630661</v>
       </c>
       <c r="C11">
-        <v>0.3100343252372397</v>
+        <v>0.3310047852850175</v>
       </c>
       <c r="D11">
-        <v>0.559549863615814</v>
+        <v>0.5789091550841192</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.6723704799800103</v>
+        <v>0.6253574970304214</v>
       </c>
       <c r="G11">
-        <v>0.2645797304845274</v>
+        <v>0.2703538542295547</v>
       </c>
       <c r="H11">
-        <v>0.01992629420496428</v>
+        <v>0.01990188026751838</v>
       </c>
       <c r="I11">
-        <v>0.00211983821134254</v>
+        <v>0.002536164868552682</v>
       </c>
       <c r="J11">
-        <v>0.250365050266474</v>
+        <v>0.2241727273359615</v>
       </c>
       <c r="K11">
-        <v>0.2012140780626979</v>
+        <v>0.1797836324272968</v>
       </c>
       <c r="L11">
-        <v>0.4544449301085933</v>
+        <v>0.09790062689369172</v>
       </c>
       <c r="M11">
-        <v>1.826782765024916</v>
+        <v>0.04780823684832747</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>0.4541328663565878</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>1.850528116429388</v>
       </c>
       <c r="P11">
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>1.033767134625322</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0.929602786126722</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.674069846974106</v>
+        <v>1.658746902327266</v>
       </c>
       <c r="C12">
-        <v>0.3086612743005617</v>
+        <v>0.3255159439633246</v>
       </c>
       <c r="D12">
-        <v>0.4633437303733956</v>
+        <v>0.4818135776779968</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>0.5903688978116506</v>
+        <v>0.545243557768984</v>
       </c>
       <c r="G12">
-        <v>0.2353316165931929</v>
+        <v>0.2522441074838611</v>
       </c>
       <c r="H12">
-        <v>0.05830446017918689</v>
+        <v>0.05827647464592189</v>
       </c>
       <c r="I12">
-        <v>0.002168023010167275</v>
+        <v>0.002574710028251381</v>
       </c>
       <c r="J12">
-        <v>0.2341825356757496</v>
+        <v>0.2061168330399958</v>
       </c>
       <c r="K12">
-        <v>0.1867349557780607</v>
+        <v>0.1675681951319064</v>
       </c>
       <c r="L12">
-        <v>0.2930953740664961</v>
+        <v>0.09371298552716656</v>
       </c>
       <c r="M12">
-        <v>1.862519044652799</v>
+        <v>0.04324218609344577</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>0.2927243089770144</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>1.882638883589806</v>
       </c>
       <c r="P12">
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>0.9379148234157668</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0.837835653217752</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.669173067233288</v>
+        <v>1.656641421021021</v>
       </c>
       <c r="C13">
-        <v>0.2995390827436495</v>
+        <v>0.3124086547034892</v>
       </c>
       <c r="D13">
-        <v>0.367301081201731</v>
+        <v>0.3822958682542605</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0.5116325426213919</v>
+        <v>0.4744143588713214</v>
       </c>
       <c r="G13">
-        <v>0.2085988821733622</v>
+        <v>0.2222601146669092</v>
       </c>
       <c r="H13">
-        <v>0.1137131111989049</v>
+        <v>0.1136964660000785</v>
       </c>
       <c r="I13">
-        <v>0.002009414652572872</v>
+        <v>0.002413204557405457</v>
       </c>
       <c r="J13">
-        <v>0.2205964478186857</v>
+        <v>0.2017182712357304</v>
       </c>
       <c r="K13">
-        <v>0.1764856926227374</v>
+        <v>0.1606695950077039</v>
       </c>
       <c r="L13">
-        <v>0.16915835479967</v>
+        <v>0.09173727889981365</v>
       </c>
       <c r="M13">
-        <v>1.844739631985277</v>
+        <v>0.03978583805826474</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>0.1689113679465777</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>1.861656152280119</v>
       </c>
       <c r="P13">
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>0.8527509897381691</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0.7691718967765127</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.643139700142257</v>
+        <v>1.63272554885603</v>
       </c>
       <c r="C14">
-        <v>0.2901726247564653</v>
+        <v>0.3003163846034909</v>
       </c>
       <c r="D14">
-        <v>0.3019918474952874</v>
+        <v>0.3137715002522299</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>0.4587816447136035</v>
+        <v>0.4289972877923915</v>
       </c>
       <c r="G14">
-        <v>0.1911293372631775</v>
+        <v>0.1974492958343959</v>
       </c>
       <c r="H14">
-        <v>0.1628299535176012</v>
+        <v>0.1628237540501374</v>
       </c>
       <c r="I14">
-        <v>0.001896243021073829</v>
+        <v>0.002312854495560401</v>
       </c>
       <c r="J14">
-        <v>0.2122685582782395</v>
+        <v>0.2029226733434975</v>
       </c>
       <c r="K14">
-        <v>0.1712445143136172</v>
+        <v>0.1579780662485879</v>
       </c>
       <c r="L14">
-        <v>0.1052787932745929</v>
+        <v>0.09112420901105267</v>
       </c>
       <c r="M14">
-        <v>1.808529099883287</v>
+        <v>0.03790564880227087</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>0.1051734461865195</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>1.823371302107347</v>
       </c>
       <c r="P14">
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>0.7982109395792776</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0.7302084499015677</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.625783124820884</v>
+        <v>1.61597323308763</v>
       </c>
       <c r="C15">
-        <v>0.2868948578709904</v>
+        <v>0.2963786156100809</v>
       </c>
       <c r="D15">
-        <v>0.2853721020049704</v>
+        <v>0.2960214034903288</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.4456240086703787</v>
+        <v>0.4185133951655899</v>
       </c>
       <c r="G15">
-        <v>0.1869405227051075</v>
+        <v>0.1895169387971478</v>
       </c>
       <c r="H15">
-        <v>0.1752547078231004</v>
+        <v>0.1752524157351303</v>
       </c>
       <c r="I15">
-        <v>0.001941291374421006</v>
+        <v>0.002382606711054613</v>
       </c>
       <c r="J15">
-        <v>0.2105657782045895</v>
+        <v>0.2050339640472174</v>
       </c>
       <c r="K15">
-        <v>0.1705484509106263</v>
+        <v>0.1580398955309796</v>
       </c>
       <c r="L15">
-        <v>0.09256858736675255</v>
+        <v>0.09123161595495688</v>
       </c>
       <c r="M15">
-        <v>1.788912628408923</v>
+        <v>0.03759339369133752</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>0.0925264426916641</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>1.803312244046708</v>
       </c>
       <c r="P15">
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>0.785730595093554</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0.7233717826960344</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.524851457587744</v>
+        <v>1.515945490849845</v>
       </c>
       <c r="C16">
-        <v>0.2721362482625267</v>
+        <v>0.2812064535491459</v>
       </c>
       <c r="D16">
-        <v>0.2720957839110554</v>
+        <v>0.2795157160390715</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.4436222337232678</v>
+        <v>0.4242592944571157</v>
       </c>
       <c r="G16">
-        <v>0.1893245593072805</v>
+        <v>0.1758852987657562</v>
       </c>
       <c r="H16">
-        <v>0.1621577109938954</v>
+        <v>0.1621650278620166</v>
       </c>
       <c r="I16">
-        <v>0.001766297210978429</v>
+        <v>0.002216363193019433</v>
       </c>
       <c r="J16">
-        <v>0.214810194009992</v>
+        <v>0.2244217838619385</v>
       </c>
       <c r="K16">
-        <v>0.1769212779192788</v>
+        <v>0.1655815258739057</v>
       </c>
       <c r="L16">
-        <v>0.09153698888104245</v>
+        <v>0.09407194463848079</v>
       </c>
       <c r="M16">
-        <v>1.681235026019237</v>
+        <v>0.03923277853796492</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>0.09178540972369476</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>1.696007236081272</v>
       </c>
       <c r="P16">
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>0.7994968300568246</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0.7532341360270323</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.461394258561029</v>
+        <v>1.452267389613837</v>
       </c>
       <c r="C17">
-        <v>0.2658678504431293</v>
+        <v>0.2757206309125451</v>
       </c>
       <c r="D17">
-        <v>0.2954307600828088</v>
+        <v>0.3021173879069323</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.4694947112986014</v>
+        <v>0.4519703616799262</v>
       </c>
       <c r="G17">
-        <v>0.2002911398004343</v>
+        <v>0.1797647274598759</v>
       </c>
       <c r="H17">
-        <v>0.1242131314064352</v>
+        <v>0.1242201232426225</v>
       </c>
       <c r="I17">
-        <v>0.001728433749689451</v>
+        <v>0.002175311177248673</v>
       </c>
       <c r="J17">
-        <v>0.222467295723618</v>
+        <v>0.2392017823288839</v>
       </c>
       <c r="K17">
-        <v>0.1845491198902103</v>
+        <v>0.1728742250844011</v>
       </c>
       <c r="L17">
-        <v>0.1204234516309484</v>
+        <v>0.09689653687388855</v>
       </c>
       <c r="M17">
-        <v>1.618113143240805</v>
+        <v>0.04132495571486139</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>0.1208331272584289</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>1.633914224785229</v>
       </c>
       <c r="P17">
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>0.8386801824332935</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0.7960071054729383</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.423962597410991</v>
+        <v>1.413358887107933</v>
       </c>
       <c r="C18">
-        <v>0.2648105107338665</v>
+        <v>0.277001487309974</v>
       </c>
       <c r="D18">
-        <v>0.3569767131173762</v>
+        <v>0.3644230501347607</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.52606713480548</v>
+        <v>0.5068181287387503</v>
       </c>
       <c r="G18">
-        <v>0.2213875001052372</v>
+        <v>0.1961805892067332</v>
       </c>
       <c r="H18">
-        <v>0.07137462260114091</v>
+        <v>0.07138369266753131</v>
       </c>
       <c r="I18">
-        <v>0.001487049734743451</v>
+        <v>0.001883187373535655</v>
       </c>
       <c r="J18">
-        <v>0.2346169371641764</v>
+        <v>0.2539006894219256</v>
       </c>
       <c r="K18">
-        <v>0.1951091492910351</v>
+        <v>0.1819304883635109</v>
       </c>
       <c r="L18">
-        <v>0.1984563342689611</v>
+        <v>0.1004589797762323</v>
       </c>
       <c r="M18">
-        <v>1.584703023514919</v>
+        <v>0.0443548710870072</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>0.1989599454311346</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>1.602678113177916</v>
       </c>
       <c r="P18">
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>0.9088038596395762</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0.8621114913371173</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.40792755728981</v>
+        <v>1.394911945450104</v>
       </c>
       <c r="C19">
-        <v>0.2710616783816704</v>
+        <v>0.2870056595692745</v>
       </c>
       <c r="D19">
-        <v>0.4528760274539252</v>
+        <v>0.4621875505162336</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.6057045843398825</v>
+        <v>0.5822193646483811</v>
       </c>
       <c r="G19">
-        <v>0.2489938344727634</v>
+        <v>0.219948252656252</v>
       </c>
       <c r="H19">
-        <v>0.02631243607074651</v>
+        <v>0.02632915332755204</v>
       </c>
       <c r="I19">
-        <v>0.001621741906992824</v>
+        <v>0.002048039069896923</v>
       </c>
       <c r="J19">
-        <v>0.2492549973430158</v>
+        <v>0.2682517226300689</v>
       </c>
       <c r="K19">
-        <v>0.2072153315801177</v>
+        <v>0.1917091931250727</v>
       </c>
       <c r="L19">
-        <v>0.3410320538746276</v>
+        <v>0.1042852583624576</v>
       </c>
       <c r="M19">
-        <v>1.580275274655833</v>
+        <v>0.04790687475346722</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>0.341567071313321</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>1.601318339215055</v>
       </c>
       <c r="P19">
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>0.9979909889116527</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0.9421657525663676</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.45642524584116</v>
+        <v>1.438235419593241</v>
       </c>
       <c r="C20">
-        <v>0.2923153817398401</v>
+        <v>0.3158888212689135</v>
       </c>
       <c r="D20">
-        <v>0.6405381304583386</v>
+        <v>0.6552161813117721</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>0.7511404818707419</v>
+        <v>0.7153407227543838</v>
       </c>
       <c r="G20">
-        <v>0.2965300751414688</v>
+        <v>0.2672255163614423</v>
       </c>
       <c r="H20">
-        <v>0.001170779173714109</v>
+        <v>0.001190892044500291</v>
       </c>
       <c r="I20">
-        <v>0.001882140158432577</v>
+        <v>0.002351403094777105</v>
       </c>
       <c r="J20">
-        <v>0.2717136516576986</v>
+        <v>0.279909207633942</v>
       </c>
       <c r="K20">
-        <v>0.2246496296026379</v>
+        <v>0.2039188251686959</v>
       </c>
       <c r="L20">
-        <v>0.6563309781717663</v>
+        <v>0.1082803872379081</v>
       </c>
       <c r="M20">
-        <v>1.652388180630965</v>
+        <v>0.05378543735687735</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>0.6566299517973562</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>1.679118102400793</v>
       </c>
       <c r="P20">
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>1.145947716591422</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>1.06448810411716</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.635997170042344</v>
+        <v>1.614692931838107</v>
       </c>
       <c r="C21">
-        <v>0.3249123054126812</v>
+        <v>0.3512078535970318</v>
       </c>
       <c r="D21">
-        <v>0.7306184320327134</v>
+        <v>0.7568679591080638</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>0.8065459405599853</v>
+        <v>0.7438716930604414</v>
       </c>
       <c r="G21">
-        <v>0.3093163108886614</v>
+        <v>0.3256220209343823</v>
       </c>
       <c r="H21">
-        <v>0.002505277319112986</v>
+        <v>0.002442974765445083</v>
       </c>
       <c r="I21">
-        <v>0.002568527897299333</v>
+        <v>0.003014910454733233</v>
       </c>
       <c r="J21">
-        <v>0.2725484604803157</v>
+        <v>0.2269095771517371</v>
       </c>
       <c r="K21">
-        <v>0.2197049812158411</v>
+        <v>0.1919033298716037</v>
       </c>
       <c r="L21">
-        <v>0.7607574369886834</v>
+        <v>0.1017009906514712</v>
       </c>
       <c r="M21">
-        <v>1.85335088723545</v>
+        <v>0.0535121408928152</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>0.7601205792856547</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>1.880883906264529</v>
       </c>
       <c r="P21">
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>1.175129899367462</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>1.038527670285518</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.754970142764819</v>
+        <v>1.731946873592193</v>
       </c>
       <c r="C22">
-        <v>0.3438022571953638</v>
+        <v>0.3711690738031166</v>
       </c>
       <c r="D22">
-        <v>0.7802886920978551</v>
+        <v>0.8147328394728106</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>0.8384551398810913</v>
+        <v>0.7569201570348412</v>
       </c>
       <c r="G22">
-        <v>0.3171545267937077</v>
+        <v>0.3706472631093476</v>
       </c>
       <c r="H22">
-        <v>0.003658162480843496</v>
+        <v>0.003512733623506903</v>
       </c>
       <c r="I22">
-        <v>0.002905815357811647</v>
+        <v>0.003225827531062819</v>
       </c>
       <c r="J22">
-        <v>0.2729027823181056</v>
+        <v>0.1996698730271937</v>
       </c>
       <c r="K22">
-        <v>0.216674271799473</v>
+        <v>0.1839918831164287</v>
       </c>
       <c r="L22">
-        <v>0.8125294602993449</v>
+        <v>0.09766507920061418</v>
       </c>
       <c r="M22">
-        <v>1.982458725006325</v>
+        <v>0.05345638891713733</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>0.8112659529457602</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>2.009944132667954</v>
       </c>
       <c r="P22">
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>1.192694313855426</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>1.017530521779648</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.692896419574481</v>
+        <v>1.670421050369555</v>
       </c>
       <c r="C23">
-        <v>0.3317825191469979</v>
+        <v>0.35908620599551</v>
       </c>
       <c r="D23">
-        <v>0.7530254191618155</v>
+        <v>0.7820564192680877</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>0.8231790209976992</v>
+        <v>0.7539392945840078</v>
       </c>
       <c r="G23">
-        <v>0.3141755499471941</v>
+        <v>0.3414894894102218</v>
       </c>
       <c r="H23">
-        <v>0.003021149914617882</v>
+        <v>0.002926945887398724</v>
       </c>
       <c r="I23">
-        <v>0.002418466964986266</v>
+        <v>0.002751396138481965</v>
       </c>
       <c r="J23">
-        <v>0.2733385281689706</v>
+        <v>0.2176275407732149</v>
       </c>
       <c r="K23">
-        <v>0.2191419483949986</v>
+        <v>0.1894922664077008</v>
       </c>
       <c r="L23">
-        <v>0.7849120022972613</v>
+        <v>0.100186028630846</v>
       </c>
       <c r="M23">
-        <v>1.911837714201909</v>
+        <v>0.05404935047668324</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>0.7840240492797079</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>1.939932820450963</v>
       </c>
       <c r="P23">
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>1.187182082574608</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>1.0370159909113</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.455312019612478</v>
+        <v>1.436848549812595</v>
       </c>
       <c r="C24">
-        <v>0.2897416820581213</v>
+        <v>0.3135382810208398</v>
       </c>
       <c r="D24">
-        <v>0.6513467826795818</v>
+        <v>0.6662175184589216</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>0.7636911301686666</v>
+        <v>0.727345645797989</v>
       </c>
       <c r="G24">
-        <v>0.3018702339922044</v>
+        <v>0.2717497332450023</v>
       </c>
       <c r="H24">
-        <v>0.001124587768841723</v>
+        <v>0.001145282187055008</v>
       </c>
       <c r="I24">
-        <v>0.001408951234774136</v>
+        <v>0.001779540487667042</v>
       </c>
       <c r="J24">
-        <v>0.2745301903496227</v>
+        <v>0.2829072060779865</v>
       </c>
       <c r="K24">
-        <v>0.2276990307338664</v>
+        <v>0.206501679128543</v>
       </c>
       <c r="L24">
-        <v>0.6805335531404353</v>
+        <v>0.1092685781680611</v>
       </c>
       <c r="M24">
-        <v>1.647472946387637</v>
+        <v>0.05473754208678194</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>0.6808346384023451</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>1.674520178033703</v>
       </c>
       <c r="P24">
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>1.163165478256687</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>1.080363554268345</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.198552127185309</v>
+        <v>1.187633820517419</v>
       </c>
       <c r="C25">
-        <v>0.244964849415652</v>
+        <v>0.2587079966982913</v>
       </c>
       <c r="D25">
-        <v>0.5422961572361373</v>
+        <v>0.5530495319100339</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>0.7021204185486027</v>
+        <v>0.6750997933530556</v>
       </c>
       <c r="G25">
-        <v>0.2905947325001037</v>
+        <v>0.2603757772553195</v>
       </c>
       <c r="H25">
-        <v>8.709404929896358E-05</v>
+        <v>0.0001085824048248085</v>
       </c>
       <c r="I25">
-        <v>0.001075313171853054</v>
+        <v>0.001308534966080188</v>
       </c>
       <c r="J25">
-        <v>0.2770321934280844</v>
+        <v>0.2912580926939938</v>
       </c>
       <c r="K25">
-        <v>0.2382286460853962</v>
+        <v>0.2191364387016268</v>
       </c>
       <c r="L25">
-        <v>0.5683254892537235</v>
+        <v>0.1178691861304237</v>
       </c>
       <c r="M25">
-        <v>1.362683770425008</v>
+        <v>0.05421559054674674</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>0.569333712593135</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>1.382418973713044</v>
       </c>
       <c r="P25">
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>1.144018235503381</v>
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>1.078617235972985</v>
       </c>
     </row>
   </sheetData>
